--- a/asset/Learn_ja/IT Automation HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/IT Automation HA構成インストールマニュアル.xlsx
@@ -26,10 +26,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HA構成(DBMS)'!$B$11:$N$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'HA構成(OpenStack)'!$B$12:$N$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HA構成(Terraform)'!$B$12:$N$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'HA構成(Web・AP)'!$B$12:$N$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'HA構成(Web・AP)'!$B$12:$N$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$N$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HA構成(DBMS)'!$A$1:$N$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'HA構成(Web・AP)'!$A$1:$N$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'HA構成(Web・AP)'!$A$1:$N$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HA構成(外部ストレージ)'!$A$1:$O$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$X$125</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'HA構成(Ansible Tower)'!$12:$13</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="474">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -813,22 +813,6 @@
     <t>Apacheのconfファイル修正</t>
     <rPh sb="15" eb="17">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共有を利用するディレクトリの中身を削除する</t>
-    <rPh sb="0" eb="2">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3773,57 +3757,6 @@
     <rPh sb="71" eb="72">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>rm -rf /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/temp/*
-rm -rf /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/webroot/uploadfiles/*</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -13297,15 +13230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13354,8 +13278,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13368,9 +13370,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13390,80 +13389,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13471,8 +13404,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13489,11 +13425,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13510,6 +13443,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13521,15 +13463,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14493,7 +14426,7 @@
   <sheetData>
     <row r="71" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C71" s="123"/>
       <c r="D71" s="123"/>
@@ -14529,10 +14462,10 @@
     </row>
     <row r="73" spans="2:21" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C73" s="102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D73" s="102"/>
       <c r="E73" s="103"/>
@@ -14567,10 +14500,10 @@
     </row>
     <row r="75" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="110" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D75" s="94"/>
       <c r="E75" s="17"/>
@@ -14603,10 +14536,10 @@
     </row>
     <row r="77" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B77" s="111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C77" s="95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D77" s="95"/>
       <c r="E77" s="17"/>
@@ -14640,7 +14573,7 @@
     <row r="79" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="111"/>
       <c r="C79" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D79" s="96"/>
       <c r="E79" s="17"/>
@@ -14658,7 +14591,7 @@
     <row r="80" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="111"/>
       <c r="C80" s="95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D80" s="95"/>
       <c r="E80" s="17"/>
@@ -14691,10 +14624,10 @@
     </row>
     <row r="82" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D82" s="95"/>
       <c r="E82" s="17"/>
@@ -14712,7 +14645,7 @@
     <row r="83" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="59"/>
       <c r="C83" s="95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D83" s="95"/>
       <c r="E83" s="17"/>
@@ -14729,7 +14662,7 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C84" s="38" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="17"/>
@@ -14763,16 +14696,16 @@
     <row r="86" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
       <c r="C86" s="136" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D86" s="140" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E86" s="134" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F86" s="137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G86" s="138"/>
       <c r="H86" s="138"/>
@@ -14787,22 +14720,22 @@
       <c r="D87" s="141"/>
       <c r="E87" s="135"/>
       <c r="F87" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G87" s="97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H87" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="I87" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="I87" s="119" t="s">
-        <v>250</v>
-      </c>
       <c r="J87" s="121" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K87" s="120" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L87" s="19"/>
     </row>
@@ -14812,28 +14745,28 @@
         <v>1</v>
       </c>
       <c r="D88" s="98" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E88" s="126" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F88" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G88" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H88" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I88" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J88" s="99" t="s">
         <v>9</v>
       </c>
       <c r="K88" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L88" s="19"/>
     </row>
@@ -14843,28 +14776,28 @@
         <v>2</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E89" s="127" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F89" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G89" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H89" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I89" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J89" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K89" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L89" s="19"/>
     </row>
@@ -14874,28 +14807,28 @@
         <v>3</v>
       </c>
       <c r="D90" s="98" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E90" s="127" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F90" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G90" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H90" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I90" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J90" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K90" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L90" s="19"/>
     </row>
@@ -14905,17 +14838,17 @@
         <v>4</v>
       </c>
       <c r="D91" s="98" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E91" s="127" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F91" s="99"/>
       <c r="G91" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H91" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I91" s="99"/>
       <c r="J91" s="98"/>
@@ -14928,15 +14861,15 @@
         <v>5</v>
       </c>
       <c r="D92" s="98" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E92" s="127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F92" s="99"/>
       <c r="G92" s="99"/>
       <c r="H92" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I92" s="99"/>
       <c r="J92" s="98"/>
@@ -14949,16 +14882,16 @@
         <v>6</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E93" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F93" s="99"/>
       <c r="G93" s="99"/>
       <c r="H93" s="99"/>
       <c r="I93" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J93" s="98"/>
       <c r="K93" s="100"/>
@@ -14973,14 +14906,14 @@
         <v>7</v>
       </c>
       <c r="E94" s="127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="99"/>
       <c r="H94" s="99"/>
       <c r="I94" s="99"/>
       <c r="J94" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K94" s="100"/>
       <c r="L94" s="19"/>
@@ -14991,10 +14924,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="98" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E95" s="126" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F95" s="99"/>
       <c r="G95" s="99"/>
@@ -15002,7 +14935,7 @@
       <c r="I95" s="99"/>
       <c r="J95" s="98"/>
       <c r="K95" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L95" s="19"/>
     </row>
@@ -15012,28 +14945,28 @@
         <v>9</v>
       </c>
       <c r="D96" s="98" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E96" s="127" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F96" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G96" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H96" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I96" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J96" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K96" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L96" s="19"/>
     </row>
@@ -15087,10 +15020,10 @@
     </row>
     <row r="100" spans="2:21" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="113" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C100" s="114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D100" s="114"/>
       <c r="E100" s="114"/>
@@ -15129,10 +15062,10 @@
     </row>
     <row r="102" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B102" s="110" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C102" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D102" s="105"/>
       <c r="E102" s="17"/>
@@ -15166,7 +15099,7 @@
     <row r="104" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="106"/>
       <c r="C104" s="125" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D104" s="60"/>
       <c r="E104" s="60"/>
@@ -15184,7 +15117,7 @@
     <row r="105" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B105" s="106"/>
       <c r="C105" s="106" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D105" s="106"/>
       <c r="E105" s="17"/>
@@ -15202,7 +15135,7 @@
     <row r="106" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B106" s="106"/>
       <c r="C106" s="106" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D106" s="106"/>
       <c r="E106" s="17"/>
@@ -15235,10 +15168,10 @@
     </row>
     <row r="108" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B108" s="111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C108" s="106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D108" s="106"/>
       <c r="E108" s="17"/>
@@ -15272,7 +15205,7 @@
     <row r="110" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="111"/>
       <c r="C110" s="125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D110" s="60"/>
       <c r="E110" s="60"/>
@@ -15290,7 +15223,7 @@
     <row r="111" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="111"/>
       <c r="C111" s="106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D111" s="106"/>
       <c r="E111" s="17"/>
@@ -15308,7 +15241,7 @@
     <row r="112" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="111"/>
       <c r="C112" s="106" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D112" s="106"/>
       <c r="E112" s="17"/>
@@ -15326,7 +15259,7 @@
     <row r="113" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="111"/>
       <c r="C113" s="125" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D113" s="60"/>
       <c r="E113" s="60"/>
@@ -15344,7 +15277,7 @@
     <row r="114" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="111"/>
       <c r="C114" s="106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="106"/>
       <c r="E114" s="17"/>
@@ -15362,7 +15295,7 @@
     <row r="115" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B115" s="111"/>
       <c r="C115" s="106" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="106"/>
       <c r="E115" s="17"/>
@@ -15411,10 +15344,10 @@
     </row>
     <row r="118" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C118" s="114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D118" s="114"/>
       <c r="E118" s="114"/>
@@ -15453,10 +15386,10 @@
     </row>
     <row r="120" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B120" s="109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C120" s="107" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D120" s="107"/>
       <c r="E120" s="62"/>
@@ -15490,7 +15423,7 @@
     <row r="122" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="61"/>
       <c r="C122" s="125" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D122" s="60"/>
       <c r="E122" s="60"/>
@@ -15508,7 +15441,7 @@
     <row r="123" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B123" s="61"/>
       <c r="C123" s="106" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D123" s="106"/>
       <c r="E123" s="62"/>
@@ -15526,7 +15459,7 @@
     <row r="124" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="64"/>
       <c r="C124" s="108" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D124" s="108"/>
       <c r="E124" s="64"/>
@@ -15588,12 +15521,12 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N93"/>
+  <dimension ref="B1:N92"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L48" sqref="L48:M48"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15622,40 +15555,40 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M3" s="55"/>
       <c r="N3" s="19"/>
@@ -15672,7 +15605,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -15709,10 +15642,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -15729,7 +15662,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -15774,33 +15707,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="169" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -15823,11 +15756,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="193"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -15842,8 +15775,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="174"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="166"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -15851,25 +15784,25 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="175" t="s">
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="M14" s="164"/>
+      <c r="N14" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="M14" s="176"/>
-      <c r="N14" s="27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15877,19 +15810,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="196" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" s="176"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="164"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -15897,19 +15830,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="196" t="s">
-        <v>199</v>
-      </c>
-      <c r="M16" s="176"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="197" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="164"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -15925,8 +15858,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="174"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="166"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -15947,12 +15880,12 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="196" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="176"/>
+      <c r="L18" s="197" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="164"/>
       <c r="N18" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -15968,8 +15901,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="174"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="166"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -15990,10 +15923,10 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="196" t="s">
-        <v>200</v>
-      </c>
-      <c r="M20" s="176"/>
+      <c r="L20" s="197" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="164"/>
       <c r="N20" s="27" t="s">
         <v>104</v>
       </c>
@@ -16016,10 +15949,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="196" t="s">
-        <v>201</v>
-      </c>
-      <c r="M21" s="176"/>
+      <c r="L21" s="197" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="164"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16035,8 +15968,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="174"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="166"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" ht="189" x14ac:dyDescent="0.15">
@@ -16057,12 +15990,12 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="196" t="s">
-        <v>454</v>
-      </c>
-      <c r="M23" s="176"/>
+      <c r="L23" s="197" t="s">
+        <v>452</v>
+      </c>
+      <c r="M23" s="164"/>
       <c r="N23" s="27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -16083,12 +16016,12 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="196" t="s">
-        <v>219</v>
-      </c>
-      <c r="M24" s="193"/>
+      <c r="L24" s="197" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" s="162"/>
       <c r="N24" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16109,10 +16042,10 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="196" t="s">
+      <c r="L25" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="193"/>
+      <c r="M25" s="162"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -16121,7 +16054,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>9</v>
@@ -16133,12 +16066,12 @@
       <c r="I26" s="129"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="175" t="s">
-        <v>450</v>
-      </c>
-      <c r="M26" s="176"/>
+      <c r="L26" s="161" t="s">
+        <v>448</v>
+      </c>
+      <c r="M26" s="164"/>
       <c r="N26" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16146,23 +16079,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="M27" s="193"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="197" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="162"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -16170,21 +16103,21 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="196" t="s">
+      <c r="C28" s="185"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="193"/>
+      <c r="M28" s="162"/>
       <c r="N28" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16200,8 +16133,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="174"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="166"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16222,10 +16155,10 @@
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="196" t="s">
-        <v>404</v>
-      </c>
-      <c r="M30" s="176"/>
+      <c r="L30" s="197" t="s">
+        <v>402</v>
+      </c>
+      <c r="M30" s="164"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16246,10 +16179,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="196" t="s">
-        <v>403</v>
-      </c>
-      <c r="M31" s="176"/>
+      <c r="L31" s="197" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31" s="164"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16270,10 +16203,10 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="196" t="s">
-        <v>412</v>
-      </c>
-      <c r="M32" s="176"/>
+      <c r="L32" s="197" t="s">
+        <v>410</v>
+      </c>
+      <c r="M32" s="164"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16289,8 +16222,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="174"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="166"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -16299,7 +16232,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>9</v>
@@ -16311,12 +16244,12 @@
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="196" t="s">
-        <v>467</v>
-      </c>
-      <c r="M34" s="176"/>
+      <c r="L34" s="197" t="s">
+        <v>465</v>
+      </c>
+      <c r="M34" s="164"/>
       <c r="N34" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16325,7 +16258,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>9</v>
@@ -16337,10 +16270,10 @@
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="196" t="s">
-        <v>464</v>
-      </c>
-      <c r="M35" s="176"/>
+      <c r="L35" s="197" t="s">
+        <v>462</v>
+      </c>
+      <c r="M35" s="164"/>
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16349,7 +16282,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>9</v>
@@ -16362,7 +16295,7 @@
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
       <c r="L36" s="198" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M36" s="199"/>
       <c r="N36" s="29"/>
@@ -16380,8 +16313,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="197"/>
-      <c r="M37" s="174"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16402,10 +16335,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="196" t="s">
-        <v>191</v>
-      </c>
-      <c r="M38" s="176"/>
+      <c r="L38" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" s="164"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16426,10 +16359,10 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="196" t="s">
-        <v>413</v>
-      </c>
-      <c r="M39" s="176"/>
+      <c r="L39" s="197" t="s">
+        <v>411</v>
+      </c>
+      <c r="M39" s="164"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16450,10 +16383,10 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="196" t="s">
-        <v>414</v>
-      </c>
-      <c r="M40" s="176"/>
+      <c r="L40" s="197" t="s">
+        <v>412</v>
+      </c>
+      <c r="M40" s="164"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16474,10 +16407,10 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="196" t="s">
-        <v>202</v>
-      </c>
-      <c r="M41" s="176"/>
+      <c r="L41" s="197" t="s">
+        <v>201</v>
+      </c>
+      <c r="M41" s="164"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16498,10 +16431,10 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="196" t="s">
-        <v>203</v>
-      </c>
-      <c r="M42" s="193"/>
+      <c r="L42" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="M42" s="162"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -16522,10 +16455,10 @@
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="196" t="s">
-        <v>415</v>
-      </c>
-      <c r="M43" s="193"/>
+      <c r="L43" s="197" t="s">
+        <v>413</v>
+      </c>
+      <c r="M43" s="162"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -16546,10 +16479,10 @@
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="196" t="s">
-        <v>416</v>
-      </c>
-      <c r="M44" s="193"/>
+      <c r="L44" s="197" t="s">
+        <v>414</v>
+      </c>
+      <c r="M44" s="162"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -16570,10 +16503,10 @@
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="196" t="s">
-        <v>417</v>
-      </c>
-      <c r="M45" s="193"/>
+      <c r="L45" s="197" t="s">
+        <v>415</v>
+      </c>
+      <c r="M45" s="162"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16595,9 +16528,9 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
       <c r="L46" s="195" t="s">
-        <v>392</v>
-      </c>
-      <c r="M46" s="193"/>
+        <v>390</v>
+      </c>
+      <c r="M46" s="162"/>
       <c r="N46" s="46"/>
     </row>
     <row r="47" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16619,9 +16552,9 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="195" t="s">
-        <v>393</v>
-      </c>
-      <c r="M47" s="193"/>
+        <v>391</v>
+      </c>
+      <c r="M47" s="162"/>
       <c r="N47" s="46"/>
     </row>
     <row r="48" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16630,7 +16563,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45" t="s">
@@ -16645,9 +16578,9 @@
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
       <c r="L48" s="195" t="s">
-        <v>394</v>
-      </c>
-      <c r="M48" s="193"/>
+        <v>392</v>
+      </c>
+      <c r="M48" s="162"/>
       <c r="N48" s="46"/>
     </row>
     <row r="49" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16656,7 +16589,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45" t="s">
@@ -16671,9 +16604,9 @@
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="195" t="s">
-        <v>395</v>
-      </c>
-      <c r="M49" s="193"/>
+        <v>393</v>
+      </c>
+      <c r="M49" s="162"/>
       <c r="N49" s="46"/>
     </row>
     <row r="50" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16695,9 +16628,9 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="195" t="s">
-        <v>418</v>
-      </c>
-      <c r="M50" s="193"/>
+        <v>416</v>
+      </c>
+      <c r="M50" s="162"/>
       <c r="N50" s="46"/>
     </row>
     <row r="51" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16719,9 +16652,9 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="195" t="s">
-        <v>419</v>
-      </c>
-      <c r="M51" s="193"/>
+        <v>417</v>
+      </c>
+      <c r="M51" s="162"/>
       <c r="N51" s="46"/>
     </row>
     <row r="52" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16730,7 +16663,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -16745,9 +16678,9 @@
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
       <c r="L52" s="195" t="s">
-        <v>398</v>
-      </c>
-      <c r="M52" s="193"/>
+        <v>396</v>
+      </c>
+      <c r="M52" s="162"/>
       <c r="N52" s="46"/>
     </row>
     <row r="53" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16769,9 +16702,9 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="195" t="s">
-        <v>420</v>
-      </c>
-      <c r="M53" s="193"/>
+        <v>418</v>
+      </c>
+      <c r="M53" s="162"/>
       <c r="N53" s="46"/>
     </row>
     <row r="54" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16793,9 +16726,9 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="195" t="s">
-        <v>421</v>
-      </c>
-      <c r="M54" s="193"/>
+        <v>419</v>
+      </c>
+      <c r="M54" s="162"/>
       <c r="N54" s="46"/>
     </row>
     <row r="55" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16817,9 +16750,9 @@
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="195" t="s">
-        <v>401</v>
-      </c>
-      <c r="M55" s="193"/>
+        <v>399</v>
+      </c>
+      <c r="M55" s="162"/>
       <c r="N55" s="46"/>
     </row>
     <row r="56" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16828,7 +16761,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="25"/>
@@ -16841,9 +16774,9 @@
         <v>9</v>
       </c>
       <c r="L56" s="195" t="s">
-        <v>446</v>
-      </c>
-      <c r="M56" s="193"/>
+        <v>444</v>
+      </c>
+      <c r="M56" s="162"/>
       <c r="N56" s="46"/>
     </row>
     <row r="57" spans="2:14" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -16864,12 +16797,12 @@
       <c r="I57" s="24"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="175" t="s">
-        <v>204</v>
-      </c>
-      <c r="M57" s="193"/>
+      <c r="L57" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" s="162"/>
       <c r="N57" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -16890,12 +16823,12 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="196" t="s">
-        <v>205</v>
-      </c>
-      <c r="M58" s="193"/>
+      <c r="L58" s="197" t="s">
+        <v>204</v>
+      </c>
+      <c r="M58" s="162"/>
       <c r="N58" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -16916,335 +16849,335 @@
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="196" t="s">
-        <v>206</v>
-      </c>
-      <c r="M59" s="193"/>
+      <c r="L59" s="197" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" s="162"/>
       <c r="N59" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="1">
-        <f>MAX(B$11:B59)+1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B60" s="1"/>
+      <c r="C60" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="196"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="171">
+        <f>MAX(B$11:B60)+1</f>
         <v>41</v>
       </c>
-      <c r="C60" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="33" t="s">
+      <c r="C61" s="204" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="196" t="s">
-        <v>207</v>
-      </c>
-      <c r="M60" s="193"/>
-      <c r="N60" s="29"/>
-    </row>
-    <row r="61" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B61" s="1"/>
-      <c r="C61" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="197"/>
-      <c r="M61" s="174"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="183">
-        <f>MAX(B$11:B61)+1</f>
+      <c r="E61" s="177"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="177"/>
+      <c r="I61" s="177"/>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="M61" s="164"/>
+      <c r="N61" s="168"/>
+    </row>
+    <row r="62" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="172"/>
+      <c r="C62" s="205"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="M62" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="N62" s="169"/>
+    </row>
+    <row r="63" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="172"/>
+      <c r="C63" s="205"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="172"/>
+      <c r="K63" s="172"/>
+      <c r="L63" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="M63" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="N63" s="169"/>
+    </row>
+    <row r="64" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="172"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="M64" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="N64" s="169"/>
+    </row>
+    <row r="65" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="172"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="172"/>
+      <c r="K65" s="172"/>
+      <c r="L65" s="86" t="s">
+        <v>354</v>
+      </c>
+      <c r="M65" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="N65" s="169"/>
+    </row>
+    <row r="66" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="172"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="172"/>
+      <c r="F66" s="172"/>
+      <c r="G66" s="172"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="172"/>
+      <c r="J66" s="172"/>
+      <c r="K66" s="172"/>
+      <c r="L66" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="M66" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="N66" s="169"/>
+    </row>
+    <row r="67" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="172"/>
+      <c r="C67" s="205"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="172"/>
+      <c r="G67" s="172"/>
+      <c r="H67" s="172"/>
+      <c r="I67" s="172"/>
+      <c r="J67" s="172"/>
+      <c r="K67" s="172"/>
+      <c r="L67" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="M67" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="N67" s="169"/>
+    </row>
+    <row r="68" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="172"/>
+      <c r="C68" s="205"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="172"/>
+      <c r="K68" s="172"/>
+      <c r="L68" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="M68" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="N68" s="169"/>
+    </row>
+    <row r="69" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="172"/>
+      <c r="C69" s="205"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="172"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="M69" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="N69" s="169"/>
+    </row>
+    <row r="70" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="172"/>
+      <c r="C70" s="205"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="172"/>
+      <c r="K70" s="172"/>
+      <c r="L70" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="M70" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="N70" s="169"/>
+    </row>
+    <row r="71" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="172"/>
+      <c r="C71" s="205"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="172"/>
+      <c r="K71" s="172"/>
+      <c r="L71" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="M71" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="N71" s="169"/>
+    </row>
+    <row r="72" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="173"/>
+      <c r="C72" s="217"/>
+      <c r="D72" s="178"/>
+      <c r="E72" s="178"/>
+      <c r="F72" s="178"/>
+      <c r="G72" s="178"/>
+      <c r="H72" s="178"/>
+      <c r="I72" s="178"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="161"/>
+      <c r="M72" s="164"/>
+      <c r="N72" s="170"/>
+    </row>
+    <row r="73" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B73" s="1"/>
+      <c r="C73" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="196"/>
+      <c r="M73" s="166"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="1">
+        <f>MAX(B$11:B73)+1</f>
         <v>42</v>
       </c>
-      <c r="C62" s="203" t="s">
-        <v>222</v>
-      </c>
-      <c r="D62" s="166" t="s">
+      <c r="C74" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
-      <c r="I62" s="166"/>
-      <c r="J62" s="166"/>
-      <c r="K62" s="166"/>
-      <c r="L62" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="M62" s="176"/>
-      <c r="N62" s="189"/>
-    </row>
-    <row r="63" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="184"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="184"/>
-      <c r="J63" s="184"/>
-      <c r="K63" s="184"/>
-      <c r="L63" s="93" t="s">
-        <v>337</v>
-      </c>
-      <c r="M63" s="85" t="s">
-        <v>323</v>
-      </c>
-      <c r="N63" s="190"/>
-    </row>
-    <row r="64" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="184"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="184"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="184"/>
-      <c r="I64" s="184"/>
-      <c r="J64" s="184"/>
-      <c r="K64" s="184"/>
-      <c r="L64" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="M64" s="91" t="s">
-        <v>325</v>
-      </c>
-      <c r="N64" s="190"/>
-    </row>
-    <row r="65" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="184"/>
-      <c r="C65" s="204"/>
-      <c r="D65" s="184"/>
-      <c r="E65" s="184"/>
-      <c r="F65" s="184"/>
-      <c r="G65" s="184"/>
-      <c r="H65" s="184"/>
-      <c r="I65" s="184"/>
-      <c r="J65" s="184"/>
-      <c r="K65" s="184"/>
-      <c r="L65" s="90" t="s">
-        <v>355</v>
-      </c>
-      <c r="M65" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="N65" s="190"/>
-    </row>
-    <row r="66" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="184"/>
-      <c r="C66" s="204"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="184"/>
-      <c r="F66" s="184"/>
-      <c r="G66" s="184"/>
-      <c r="H66" s="184"/>
-      <c r="I66" s="184"/>
-      <c r="J66" s="184"/>
-      <c r="K66" s="184"/>
-      <c r="L66" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="M66" s="91" t="s">
-        <v>326</v>
-      </c>
-      <c r="N66" s="190"/>
-    </row>
-    <row r="67" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="184"/>
-      <c r="C67" s="204"/>
-      <c r="D67" s="184"/>
-      <c r="E67" s="184"/>
-      <c r="F67" s="184"/>
-      <c r="G67" s="184"/>
-      <c r="H67" s="184"/>
-      <c r="I67" s="184"/>
-      <c r="J67" s="184"/>
-      <c r="K67" s="184"/>
-      <c r="L67" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="M67" s="91" t="s">
-        <v>327</v>
-      </c>
-      <c r="N67" s="190"/>
-    </row>
-    <row r="68" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="184"/>
-      <c r="C68" s="204"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="184"/>
-      <c r="G68" s="184"/>
-      <c r="H68" s="184"/>
-      <c r="I68" s="184"/>
-      <c r="J68" s="184"/>
-      <c r="K68" s="184"/>
-      <c r="L68" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="M68" s="91" t="s">
-        <v>328</v>
-      </c>
-      <c r="N68" s="190"/>
-    </row>
-    <row r="69" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="184"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="184"/>
-      <c r="G69" s="184"/>
-      <c r="H69" s="184"/>
-      <c r="I69" s="184"/>
-      <c r="J69" s="184"/>
-      <c r="K69" s="184"/>
-      <c r="L69" s="86" t="s">
-        <v>359</v>
-      </c>
-      <c r="M69" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="N69" s="190"/>
-    </row>
-    <row r="70" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="184"/>
-      <c r="C70" s="204"/>
-      <c r="D70" s="184"/>
-      <c r="E70" s="184"/>
-      <c r="F70" s="184"/>
-      <c r="G70" s="184"/>
-      <c r="H70" s="184"/>
-      <c r="I70" s="184"/>
-      <c r="J70" s="184"/>
-      <c r="K70" s="184"/>
-      <c r="L70" s="86" t="s">
-        <v>360</v>
-      </c>
-      <c r="M70" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="N70" s="190"/>
-    </row>
-    <row r="71" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="184"/>
-      <c r="C71" s="204"/>
-      <c r="D71" s="184"/>
-      <c r="E71" s="184"/>
-      <c r="F71" s="184"/>
-      <c r="G71" s="184"/>
-      <c r="H71" s="184"/>
-      <c r="I71" s="184"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="184"/>
-      <c r="L71" s="86" t="s">
-        <v>361</v>
-      </c>
-      <c r="M71" s="91" t="s">
-        <v>331</v>
-      </c>
-      <c r="N71" s="190"/>
-    </row>
-    <row r="72" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="184"/>
-      <c r="C72" s="204"/>
-      <c r="D72" s="184"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="184"/>
-      <c r="G72" s="184"/>
-      <c r="H72" s="184"/>
-      <c r="I72" s="184"/>
-      <c r="J72" s="184"/>
-      <c r="K72" s="184"/>
-      <c r="L72" s="86" t="s">
-        <v>362</v>
-      </c>
-      <c r="M72" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="N72" s="190"/>
-    </row>
-    <row r="73" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="185"/>
-      <c r="C73" s="214"/>
-      <c r="D73" s="188"/>
-      <c r="E73" s="188"/>
-      <c r="F73" s="188"/>
-      <c r="G73" s="188"/>
-      <c r="H73" s="188"/>
-      <c r="I73" s="188"/>
-      <c r="J73" s="188"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="175"/>
-      <c r="M73" s="176"/>
-      <c r="N73" s="191"/>
-    </row>
-    <row r="74" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B74" s="1"/>
-      <c r="C74" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="197"/>
-      <c r="M74" s="174"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="2:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="197" t="s">
+        <v>208</v>
+      </c>
+      <c r="M74" s="164"/>
+      <c r="N74" s="29"/>
+    </row>
+    <row r="75" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="1">
         <f>MAX(B$11:B74)+1</f>
         <v>43</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>95</v>
+      <c r="C75" s="68" t="s">
+        <v>257</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="24"/>
+      <c r="I75" s="69"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="M75" s="176"/>
+      <c r="L75" s="197" t="s">
+        <v>420</v>
+      </c>
+      <c r="M75" s="162"/>
       <c r="N75" s="29"/>
     </row>
-    <row r="76" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="1">
         <f>MAX(B$11:B75)+1</f>
         <v>44</v>
       </c>
       <c r="C76" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -17253,10 +17186,10 @@
       <c r="I76" s="69"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="196" t="s">
-        <v>422</v>
-      </c>
-      <c r="M76" s="193"/>
+      <c r="L76" s="197" t="s">
+        <v>421</v>
+      </c>
+      <c r="M76" s="162"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17265,10 +17198,10 @@
         <v>45</v>
       </c>
       <c r="C77" s="68" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -17277,10 +17210,10 @@
       <c r="I77" s="69"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="196" t="s">
-        <v>423</v>
-      </c>
-      <c r="M77" s="193"/>
+      <c r="L77" s="197" t="s">
+        <v>422</v>
+      </c>
+      <c r="M77" s="162"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17288,35 +17221,35 @@
         <f>MAX(B$11:B77)+1</f>
         <v>46</v>
       </c>
-      <c r="C78" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="28" t="s">
+      <c r="C78" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="196" t="s">
-        <v>424</v>
-      </c>
-      <c r="M78" s="193"/>
+      <c r="D78" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="197" t="s">
+        <v>423</v>
+      </c>
+      <c r="M78" s="162"/>
       <c r="N78" s="29"/>
     </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
         <f>MAX(B$11:B78)+1</f>
         <v>47</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
@@ -17325,129 +17258,129 @@
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
-      <c r="L79" s="196" t="s">
-        <v>425</v>
-      </c>
-      <c r="M79" s="193"/>
+      <c r="L79" s="197" t="s">
+        <v>99</v>
+      </c>
+      <c r="M79" s="162"/>
       <c r="N79" s="29"/>
     </row>
-    <row r="80" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="1">
-        <f>MAX(B$11:B79)+1</f>
+    <row r="80" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B80" s="1"/>
+      <c r="C80" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="196"/>
+      <c r="M80" s="166"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B81" s="1">
+        <f>MAX(B$11:B80)+1</f>
         <v>48</v>
       </c>
-      <c r="C80" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="33" t="s">
+      <c r="C81" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="196" t="s">
-        <v>99</v>
-      </c>
-      <c r="M80" s="193"/>
-      <c r="N80" s="29"/>
-    </row>
-    <row r="81" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B81" s="1"/>
-      <c r="C81" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="197"/>
-      <c r="M81" s="174"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B82" s="1">
-        <f>MAX(B$11:B81)+1</f>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="197" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" s="164"/>
+      <c r="N81" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B82" s="1"/>
+      <c r="C82" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="214"/>
+      <c r="E82" s="214"/>
+      <c r="F82" s="214"/>
+      <c r="G82" s="214"/>
+      <c r="H82" s="214"/>
+      <c r="I82" s="214"/>
+      <c r="J82" s="214"/>
+      <c r="K82" s="214"/>
+      <c r="L82" s="214"/>
+      <c r="M82" s="214"/>
+      <c r="N82" s="215"/>
+    </row>
+    <row r="83" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1">
+        <f>MAX(B$11:B82)+1</f>
         <v>49</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24" t="s">
+      <c r="C83" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="196" t="s">
-        <v>36</v>
-      </c>
-      <c r="M82" s="176"/>
-      <c r="N82" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B83" s="1"/>
-      <c r="C83" s="217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="218"/>
-      <c r="E83" s="218"/>
-      <c r="F83" s="218"/>
-      <c r="G83" s="218"/>
-      <c r="H83" s="218"/>
-      <c r="I83" s="218"/>
-      <c r="J83" s="218"/>
-      <c r="K83" s="218"/>
-      <c r="L83" s="218"/>
-      <c r="M83" s="218"/>
-      <c r="N83" s="219"/>
-    </row>
-    <row r="84" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="219" t="s">
+        <v>262</v>
+      </c>
+      <c r="M83" s="164"/>
+      <c r="N83" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
         <f>MAX(B$11:B83)+1</f>
         <v>50</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>9</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D84" s="28"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
-      <c r="H84" s="28"/>
+      <c r="H84" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="I84" s="24"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
-      <c r="L84" s="216" t="s">
-        <v>264</v>
-      </c>
-      <c r="M84" s="176"/>
-      <c r="N84" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L84" s="197" t="s">
+        <v>164</v>
+      </c>
+      <c r="M84" s="164"/>
+      <c r="N84" s="29"/>
+    </row>
+    <row r="85" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <f>MAX(B$11:B84)+1</f>
         <v>51</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>108</v>
+      <c r="C85" s="48" t="s">
+        <v>209</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="25"/>
@@ -17456,40 +17389,40 @@
       <c r="H85" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I85" s="24"/>
+      <c r="I85" s="47"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="196" t="s">
-        <v>165</v>
-      </c>
-      <c r="M85" s="176"/>
+      <c r="L85" s="197" t="s">
+        <v>206</v>
+      </c>
+      <c r="M85" s="164"/>
       <c r="N85" s="29"/>
     </row>
-    <row r="86" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <f>MAX(B$11:B85)+1</f>
         <v>52</v>
       </c>
-      <c r="C86" s="48" t="s">
-        <v>211</v>
+      <c r="C86" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="D86" s="28"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="28" t="s">
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I86" s="47"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="196" t="s">
-        <v>208</v>
-      </c>
-      <c r="M86" s="176"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="197" t="s">
+        <v>165</v>
+      </c>
+      <c r="M86" s="164"/>
       <c r="N86" s="29"/>
     </row>
-    <row r="87" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="1">
         <f>MAX(B$11:B86)+1</f>
         <v>53</v>
@@ -17507,83 +17440,83 @@
       </c>
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
-      <c r="L87" s="196" t="s">
-        <v>166</v>
-      </c>
-      <c r="M87" s="176"/>
-      <c r="N87" s="29"/>
-    </row>
-    <row r="88" spans="2:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="1">
-        <f>MAX(B$11:B87)+1</f>
+      <c r="L87" s="197" t="s">
+        <v>424</v>
+      </c>
+      <c r="M87" s="164"/>
+      <c r="N87" s="49"/>
+    </row>
+    <row r="88" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B88" s="1"/>
+      <c r="C88" s="213" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="214"/>
+      <c r="E88" s="214"/>
+      <c r="F88" s="214"/>
+      <c r="G88" s="214"/>
+      <c r="H88" s="214"/>
+      <c r="I88" s="214"/>
+      <c r="J88" s="214"/>
+      <c r="K88" s="214"/>
+      <c r="L88" s="214"/>
+      <c r="M88" s="214"/>
+      <c r="N88" s="215"/>
+    </row>
+    <row r="89" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="1">
+        <f>MAX(B$14:B88)+1</f>
         <v>54</v>
       </c>
-      <c r="C88" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="28" t="s">
+      <c r="C89" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="196" t="s">
-        <v>426</v>
-      </c>
-      <c r="M88" s="176"/>
-      <c r="N88" s="49"/>
-    </row>
-    <row r="89" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B89" s="1"/>
-      <c r="C89" s="217" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="218"/>
-      <c r="E89" s="218"/>
-      <c r="F89" s="218"/>
-      <c r="G89" s="218"/>
-      <c r="H89" s="218"/>
-      <c r="I89" s="218"/>
-      <c r="J89" s="218"/>
-      <c r="K89" s="218"/>
-      <c r="L89" s="218"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="161" t="s">
+        <v>142</v>
+      </c>
       <c r="M89" s="218"/>
-      <c r="N89" s="219"/>
-    </row>
-    <row r="90" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N89" s="29"/>
+    </row>
+    <row r="90" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="1">
         <f>MAX(B$14:B89)+1</f>
         <v>55</v>
       </c>
       <c r="C90" s="68" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="175" t="s">
-        <v>143</v>
-      </c>
-      <c r="M90" s="215"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="M90" s="218"/>
       <c r="N90" s="29"/>
     </row>
-    <row r="91" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1">
         <f>MAX(B$14:B90)+1</f>
         <v>56</v>
       </c>
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D91" s="28" t="s">
@@ -17596,21 +17529,23 @@
       <c r="I91" s="35"/>
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
-      <c r="L91" s="175" t="s">
-        <v>272</v>
-      </c>
-      <c r="M91" s="215"/>
-      <c r="N91" s="29"/>
-    </row>
-    <row r="92" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="1">
+      <c r="L91" s="219" t="s">
+        <v>266</v>
+      </c>
+      <c r="M91" s="218"/>
+      <c r="N91" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="32">
         <f>MAX(B$14:B91)+1</f>
         <v>57</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D92" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="34"/>
@@ -17621,40 +17556,100 @@
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
       <c r="L92" s="216" t="s">
-        <v>268</v>
-      </c>
-      <c r="M92" s="215"/>
-      <c r="N92" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="32">
-        <f>MAX(B$14:B92)+1</f>
-        <v>58</v>
-      </c>
-      <c r="C93" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="213" t="s">
-        <v>273</v>
-      </c>
-      <c r="M93" s="193"/>
-      <c r="N93" s="29"/>
+      <c r="M92" s="162"/>
+      <c r="N92" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:N93"/>
-  <mergeCells count="107">
+  <autoFilter ref="B12:N92"/>
+  <mergeCells count="106">
+    <mergeCell ref="N61:N72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="C61:C72"/>
+    <mergeCell ref="D61:D72"/>
+    <mergeCell ref="E61:E72"/>
+    <mergeCell ref="F61:F72"/>
+    <mergeCell ref="G61:G72"/>
+    <mergeCell ref="H61:H72"/>
+    <mergeCell ref="I61:I72"/>
+    <mergeCell ref="J61:J72"/>
+    <mergeCell ref="K61:K72"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C88:N88"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C82:N82"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L55:M55"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B11:B12"/>
@@ -17675,99 +17670,12 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C89:N89"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C83:N83"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N62:N73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:C73"/>
-    <mergeCell ref="D62:D73"/>
-    <mergeCell ref="E62:E73"/>
-    <mergeCell ref="F62:F73"/>
-    <mergeCell ref="G62:G73"/>
-    <mergeCell ref="H62:H73"/>
-    <mergeCell ref="I62:I73"/>
-    <mergeCell ref="J62:J73"/>
-    <mergeCell ref="K62:K73"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L85:M85"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="L84" r:id="rId1"/>
+    <hyperlink ref="L83" r:id="rId1"/>
     <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L92" r:id="rId3"/>
+    <hyperlink ref="L91" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="65" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -17776,7 +17684,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="36" max="13" man="1"/>
-    <brk id="60" max="13" man="1"/>
+    <brk id="59" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -17789,7 +17697,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17822,41 +17730,41 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
@@ -17896,10 +17804,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -17916,7 +17824,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -17948,92 +17856,92 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="155" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="153" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="152" t="s">
+      <c r="B9" s="152" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="150" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="149" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="142" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="145" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="75" t="s">
+      <c r="H10" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="I10" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="J10" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="K10" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="M10" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="L10" s="65" t="s">
-        <v>442</v>
-      </c>
-      <c r="M10" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="N10" s="146"/>
+      <c r="N10" s="143"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="142" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
+      <c r="B11" s="158" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="79"/>
       <c r="M11" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N11" s="70"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="142" t="s">
-        <v>474</v>
-      </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
+      <c r="B12" s="158" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -18056,69 +17964,69 @@
       <c r="N12" s="70"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="142" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
+      <c r="B13" s="158" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="79"/>
       <c r="L13" s="79"/>
       <c r="M13" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N13" s="70"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="142" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
+      <c r="B14" s="158" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K14" s="79"/>
       <c r="L14" s="79"/>
       <c r="M14" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N14" s="70"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="142" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
+      <c r="B15" s="158" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
       <c r="F15" s="78"/>
       <c r="G15" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
@@ -18126,16 +18034,16 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N15" s="70"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="142" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
+      <c r="B16" s="158" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
@@ -18147,22 +18055,22 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N16" s="70"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="142" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
+      <c r="B17" s="158" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
@@ -18170,22 +18078,22 @@
       <c r="K17" s="79"/>
       <c r="L17" s="79"/>
       <c r="M17" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N17" s="70"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
+      <c r="B18" s="158" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -18193,22 +18101,22 @@
       <c r="K18" s="79"/>
       <c r="L18" s="79"/>
       <c r="M18" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N18" s="70"/>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="142" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
+      <c r="B19" s="158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="58">
         <v>777</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -18216,22 +18124,22 @@
       <c r="K19" s="79"/>
       <c r="L19" s="79"/>
       <c r="M19" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N19" s="70"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="142" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
+      <c r="B20" s="158" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
@@ -18239,22 +18147,22 @@
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
       <c r="M20" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N20" s="70"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="142" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
+      <c r="B21" s="158" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
@@ -18262,22 +18170,22 @@
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
       <c r="M21" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N21" s="70"/>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="142" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="B22" s="158" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
@@ -18285,22 +18193,22 @@
       <c r="K22" s="79"/>
       <c r="L22" s="79"/>
       <c r="M22" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N22" s="70"/>
     </row>
     <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="142" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="B23" s="158" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="58">
         <v>755</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
@@ -18308,21 +18216,21 @@
       <c r="K23" s="79"/>
       <c r="L23" s="79"/>
       <c r="M23" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N23" s="70"/>
     </row>
     <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
       <c r="E24" s="58">
         <v>777</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G24" s="79"/>
       <c r="H24" s="79"/>
@@ -18332,7 +18240,7 @@
       <c r="L24" s="79"/>
       <c r="M24" s="79"/>
       <c r="N24" s="70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
@@ -18353,18 +18261,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -18373,6 +18269,18 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18393,7 +18301,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18422,40 +18330,40 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="19"/>
@@ -18492,10 +18400,10 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -18512,7 +18420,7 @@
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -18557,33 +18465,33 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="179" t="s">
+      <c r="C10" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="181" t="s">
+      <c r="D10" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="169" t="s">
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="164" t="s">
+      <c r="M10" s="192"/>
+      <c r="N10" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="178"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="182"/>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
@@ -18606,11 +18514,11 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L11" s="171"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L11" s="193"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="188"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -18625,8 +18533,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="174"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="166"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18634,25 +18542,25 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="166" t="s">
+      <c r="D13" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="175" t="s">
-        <v>383</v>
-      </c>
-      <c r="M13" s="176"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="M13" s="164"/>
       <c r="N13" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -18660,19 +18568,19 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="176"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="164"/>
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18680,19 +18588,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="175" t="s">
-        <v>176</v>
-      </c>
-      <c r="M15" s="176"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="M15" s="164"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -18708,8 +18616,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="174"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="166"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18730,18 +18638,18 @@
       <c r="I17" s="73"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="176"/>
+      <c r="L17" s="161" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="164"/>
       <c r="N17" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -18751,8 +18659,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="174"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="166"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18761,7 +18669,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>9</v>
@@ -18773,99 +18681,99 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="192" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="176"/>
+      <c r="L19" s="163" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" s="164"/>
       <c r="N19" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="183">
+      <c r="B20" s="171">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="161" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="166" t="s">
+      <c r="C20" s="174" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="M20" s="176"/>
-      <c r="N20" s="189"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="M20" s="164"/>
+      <c r="N20" s="168"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="184">
+      <c r="B21" s="172">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
       <c r="L21" s="84" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M21" s="85" t="s">
-        <v>341</v>
-      </c>
-      <c r="N21" s="190"/>
+        <v>339</v>
+      </c>
+      <c r="N21" s="169"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="184">
+      <c r="B22" s="172">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="86" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="N22" s="190"/>
+        <v>225</v>
+      </c>
+      <c r="N22" s="169"/>
     </row>
     <row r="23" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="185">
+      <c r="B23" s="173">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="187"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="191"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="170"/>
     </row>
     <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -18902,12 +18810,12 @@
       <c r="I25" s="73"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="175" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="193"/>
+      <c r="L25" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="162"/>
       <c r="N25" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18915,8 +18823,8 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="161" t="s">
-        <v>255</v>
+      <c r="C26" s="174" t="s">
+        <v>253</v>
       </c>
       <c r="D26" s="73" t="s">
         <v>9</v>
@@ -18928,12 +18836,12 @@
       <c r="I26" s="73"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="193"/>
+      <c r="L26" s="161" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" s="162"/>
       <c r="N26" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18941,7 +18849,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="162"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="73" t="s">
         <v>9</v>
       </c>
@@ -18952,10 +18860,10 @@
       <c r="I27" s="73"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="175" t="s">
-        <v>154</v>
-      </c>
-      <c r="M27" s="193"/>
+      <c r="L27" s="161" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="162"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18963,7 +18871,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="163"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="73" t="s">
         <v>9</v>
       </c>
@@ -18974,12 +18882,12 @@
       <c r="I28" s="73"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="M28" s="193"/>
+      <c r="L28" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="M28" s="162"/>
       <c r="N28" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -19000,10 +18908,10 @@
       <c r="I29" s="73"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="175" t="s">
-        <v>160</v>
-      </c>
-      <c r="M29" s="193"/>
+      <c r="L29" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" s="162"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -19024,12 +18932,12 @@
       <c r="I30" s="73"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="175" t="s">
-        <v>120</v>
-      </c>
-      <c r="M30" s="193"/>
+      <c r="L30" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="162"/>
       <c r="N30" s="130" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19050,10 +18958,10 @@
       <c r="I31" s="73"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="175" t="s">
-        <v>386</v>
-      </c>
-      <c r="M31" s="193"/>
+      <c r="L31" s="161" t="s">
+        <v>384</v>
+      </c>
+      <c r="M31" s="162"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -19062,7 +18970,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>9</v>
@@ -19074,10 +18982,10 @@
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="175" t="s">
-        <v>161</v>
-      </c>
-      <c r="M32" s="193"/>
+      <c r="L32" s="161" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="162"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19093,8 +19001,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="174"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="166"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -19115,10 +19023,10 @@
       <c r="I34" s="73"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="194" t="s">
-        <v>298</v>
-      </c>
-      <c r="M34" s="176"/>
+      <c r="L34" s="167" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="164"/>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19139,12 +19047,12 @@
       <c r="I35" s="73"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="194" t="s">
-        <v>299</v>
-      </c>
-      <c r="M35" s="176"/>
+      <c r="L35" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" s="164"/>
       <c r="N35" s="130" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -19165,10 +19073,10 @@
       <c r="I36" s="73"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="194" t="s">
-        <v>300</v>
-      </c>
-      <c r="M36" s="176"/>
+      <c r="L36" s="167" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" s="164"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -19189,10 +19097,10 @@
       <c r="I37" s="73"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="194" t="s">
-        <v>301</v>
-      </c>
-      <c r="M37" s="176"/>
+      <c r="L37" s="167" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" s="164"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -19213,10 +19121,10 @@
       <c r="I38" s="73"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="175" t="s">
+      <c r="L38" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="M38" s="176"/>
+      <c r="M38" s="164"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19237,10 +19145,10 @@
       <c r="I39" s="73"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="175" t="s">
-        <v>302</v>
-      </c>
-      <c r="M39" s="176"/>
+      <c r="L39" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" s="164"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19261,10 +19169,10 @@
       <c r="I40" s="73"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="175" t="s">
-        <v>303</v>
-      </c>
-      <c r="M40" s="193"/>
+      <c r="L40" s="161" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" s="162"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19273,7 +19181,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28" t="s">
@@ -19287,10 +19195,10 @@
       <c r="I41" s="73"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="175" t="s">
-        <v>304</v>
-      </c>
-      <c r="M41" s="193"/>
+      <c r="L41" s="161" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" s="162"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19299,7 +19207,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28" t="s">
@@ -19313,10 +19221,10 @@
         <v>9</v>
       </c>
       <c r="K42" s="25"/>
-      <c r="L42" s="175" t="s">
-        <v>305</v>
-      </c>
-      <c r="M42" s="193"/>
+      <c r="L42" s="161" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" s="162"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19337,10 +19245,10 @@
       <c r="I43" s="73"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="175" t="s">
-        <v>306</v>
-      </c>
-      <c r="M43" s="193"/>
+      <c r="L43" s="161" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" s="162"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19361,10 +19269,10 @@
       <c r="I44" s="35"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
-      <c r="L44" s="175" t="s">
-        <v>307</v>
-      </c>
-      <c r="M44" s="193"/>
+      <c r="L44" s="161" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" s="162"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19373,7 +19281,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
@@ -19387,10 +19295,10 @@
       <c r="I45" s="35"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
-      <c r="L45" s="175" t="s">
-        <v>308</v>
-      </c>
-      <c r="M45" s="193"/>
+      <c r="L45" s="161" t="s">
+        <v>306</v>
+      </c>
+      <c r="M45" s="162"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19411,10 +19319,10 @@
       <c r="I46" s="74"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
-      <c r="L46" s="175" t="s">
-        <v>309</v>
-      </c>
-      <c r="M46" s="193"/>
+      <c r="L46" s="161" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" s="162"/>
       <c r="N46" s="36"/>
     </row>
     <row r="47" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19435,10 +19343,10 @@
       </c>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="175" t="s">
-        <v>310</v>
-      </c>
-      <c r="M47" s="193"/>
+      <c r="L47" s="161" t="s">
+        <v>308</v>
+      </c>
+      <c r="M47" s="162"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19459,10 +19367,10 @@
         <v>9</v>
       </c>
       <c r="K48" s="25"/>
-      <c r="L48" s="175" t="s">
-        <v>311</v>
-      </c>
-      <c r="M48" s="193"/>
+      <c r="L48" s="161" t="s">
+        <v>309</v>
+      </c>
+      <c r="M48" s="162"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19471,7 +19379,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="34"/>
@@ -19483,15 +19391,62 @@
       <c r="K49" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="175" t="s">
-        <v>445</v>
-      </c>
-      <c r="M49" s="193"/>
+      <c r="L49" s="161" t="s">
+        <v>443</v>
+      </c>
+      <c r="M49" s="162"/>
       <c r="N49" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:N49"/>
   <mergeCells count="63">
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
@@ -19508,53 +19463,6 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19608,40 +19516,40 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -19658,7 +19566,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -19695,10 +19603,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -19715,7 +19623,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -19760,33 +19668,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="169" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -19809,11 +19717,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="193"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -19828,8 +19736,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="174"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="166"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19837,25 +19745,25 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="175" t="s">
-        <v>383</v>
-      </c>
-      <c r="M14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="M14" s="164"/>
       <c r="N14" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19863,19 +19771,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="193"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="162"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19883,19 +19791,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="175" t="s">
-        <v>176</v>
-      </c>
-      <c r="M16" s="193"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" s="162"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19933,12 +19841,12 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="193"/>
+      <c r="L18" s="161" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="162"/>
       <c r="N18" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19976,12 +19884,12 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="175" t="s">
-        <v>447</v>
-      </c>
-      <c r="M20" s="176"/>
+      <c r="L20" s="161" t="s">
+        <v>445</v>
+      </c>
+      <c r="M20" s="164"/>
       <c r="N20" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -20002,12 +19910,12 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="175" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" s="176"/>
+      <c r="L21" s="161" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="164"/>
       <c r="N21" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20028,10 +19936,10 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="175" t="s">
+      <c r="L22" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="176"/>
+      <c r="M22" s="164"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20040,7 +19948,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>9</v>
@@ -20052,12 +19960,12 @@
       <c r="I23" s="129"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="175" t="s">
-        <v>450</v>
-      </c>
-      <c r="M23" s="176"/>
+      <c r="L23" s="161" t="s">
+        <v>448</v>
+      </c>
+      <c r="M23" s="164"/>
       <c r="N23" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20065,23 +19973,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="175" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="176"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="164"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -20089,21 +19997,21 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="175" t="s">
+      <c r="C25" s="185"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="176"/>
+      <c r="M25" s="164"/>
       <c r="N25" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20119,8 +20027,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="174"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20141,10 +20049,10 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="175" t="s">
-        <v>387</v>
-      </c>
-      <c r="M27" s="193"/>
+      <c r="L27" s="161" t="s">
+        <v>385</v>
+      </c>
+      <c r="M27" s="162"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -20165,10 +20073,10 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="175" t="s">
-        <v>388</v>
-      </c>
-      <c r="M28" s="193"/>
+      <c r="L28" s="161" t="s">
+        <v>386</v>
+      </c>
+      <c r="M28" s="162"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -20189,10 +20097,10 @@
       <c r="I29" s="35"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="175" t="s">
-        <v>389</v>
-      </c>
-      <c r="M29" s="193"/>
+      <c r="L29" s="161" t="s">
+        <v>387</v>
+      </c>
+      <c r="M29" s="162"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20208,8 +20116,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="174"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="166"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20230,10 +20138,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="194" t="s">
-        <v>320</v>
-      </c>
-      <c r="M31" s="176"/>
+      <c r="L31" s="167" t="s">
+        <v>318</v>
+      </c>
+      <c r="M31" s="164"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -20242,7 +20150,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>9</v>
@@ -20254,221 +20162,221 @@
       <c r="I32" s="77"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="194" t="s">
-        <v>363</v>
-      </c>
-      <c r="M32" s="176"/>
+      <c r="L32" s="167" t="s">
+        <v>361</v>
+      </c>
+      <c r="M32" s="164"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="183">
+      <c r="B33" s="171">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="161" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="166" t="s">
+      <c r="C33" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="M33" s="176"/>
-      <c r="N33" s="189"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="M33" s="164"/>
+      <c r="N33" s="168"/>
     </row>
     <row r="34" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="184"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
       <c r="L34" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="M34" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="N34" s="169"/>
+    </row>
+    <row r="35" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="172"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="M35" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="N35" s="169"/>
+    </row>
+    <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="172"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="M34" s="85" t="s">
-        <v>351</v>
-      </c>
-      <c r="N34" s="190"/>
-    </row>
-    <row r="35" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="184"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="86" t="s">
+      <c r="M36" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="N36" s="169"/>
+    </row>
+    <row r="37" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="172"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="M35" s="91" t="s">
+      <c r="M37" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="N35" s="190"/>
-    </row>
-    <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="184"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="86" t="s">
+      <c r="N37" s="169"/>
+    </row>
+    <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="172"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="M36" s="91" t="s">
+      <c r="M38" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="N36" s="190"/>
-    </row>
-    <row r="37" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="184"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="86" t="s">
+      <c r="N38" s="169"/>
+    </row>
+    <row r="39" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="172"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="M37" s="91" t="s">
+      <c r="M39" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="N37" s="190"/>
-    </row>
-    <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="184"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="184"/>
-      <c r="L38" s="86" t="s">
+      <c r="N39" s="169"/>
+    </row>
+    <row r="40" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="172"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="M38" s="91" t="s">
+      <c r="M40" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="N38" s="190"/>
-    </row>
-    <row r="39" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="184"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="86" t="s">
+      <c r="N40" s="169"/>
+    </row>
+    <row r="41" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="172"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="M39" s="91" t="s">
+      <c r="M41" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="N39" s="190"/>
-    </row>
-    <row r="40" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="184"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="184"/>
-      <c r="L40" s="86" t="s">
+      <c r="N41" s="169"/>
+    </row>
+    <row r="42" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="172"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="M40" s="91" t="s">
+      <c r="M42" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="N40" s="190"/>
-    </row>
-    <row r="41" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="184"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="M41" s="91" t="s">
-        <v>331</v>
-      </c>
-      <c r="N41" s="190"/>
-    </row>
-    <row r="42" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="184"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="184"/>
-      <c r="L42" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="M42" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="N42" s="190"/>
+      <c r="N42" s="169"/>
     </row>
     <row r="43" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="185"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="188"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="191"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
+      <c r="K43" s="178"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="170"/>
     </row>
     <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20488,10 +20396,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="175" t="s">
-        <v>390</v>
-      </c>
-      <c r="M44" s="193"/>
+      <c r="L44" s="161" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" s="162"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20512,10 +20420,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="175" t="s">
-        <v>391</v>
-      </c>
-      <c r="M45" s="193"/>
+      <c r="L45" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="M45" s="162"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20536,10 +20444,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="175" t="s">
-        <v>428</v>
-      </c>
-      <c r="M46" s="193"/>
+      <c r="L46" s="161" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" s="162"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20560,10 +20468,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="175" t="s">
-        <v>429</v>
-      </c>
-      <c r="M47" s="193"/>
+      <c r="L47" s="161" t="s">
+        <v>427</v>
+      </c>
+      <c r="M47" s="162"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20584,10 +20492,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="175" t="s">
-        <v>430</v>
-      </c>
-      <c r="M48" s="193"/>
+      <c r="L48" s="161" t="s">
+        <v>428</v>
+      </c>
+      <c r="M48" s="162"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20609,9 +20517,9 @@
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="195" t="s">
-        <v>392</v>
-      </c>
-      <c r="M49" s="193"/>
+        <v>390</v>
+      </c>
+      <c r="M49" s="162"/>
       <c r="N49" s="46"/>
     </row>
     <row r="50" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20633,9 +20541,9 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="195" t="s">
-        <v>393</v>
-      </c>
-      <c r="M50" s="193"/>
+        <v>391</v>
+      </c>
+      <c r="M50" s="162"/>
       <c r="N50" s="46"/>
     </row>
     <row r="51" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20644,7 +20552,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45" t="s">
@@ -20659,9 +20567,9 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="195" t="s">
-        <v>394</v>
-      </c>
-      <c r="M51" s="193"/>
+        <v>392</v>
+      </c>
+      <c r="M51" s="162"/>
       <c r="N51" s="46"/>
     </row>
     <row r="52" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20670,7 +20578,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45" t="s">
@@ -20685,9 +20593,9 @@
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="195" t="s">
-        <v>395</v>
-      </c>
-      <c r="M52" s="193"/>
+        <v>393</v>
+      </c>
+      <c r="M52" s="162"/>
       <c r="N52" s="46"/>
     </row>
     <row r="53" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20709,9 +20617,9 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="M53" s="193"/>
+        <v>394</v>
+      </c>
+      <c r="M53" s="162"/>
       <c r="N53" s="46"/>
     </row>
     <row r="54" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20733,9 +20641,9 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="195" t="s">
-        <v>397</v>
-      </c>
-      <c r="M54" s="193"/>
+        <v>395</v>
+      </c>
+      <c r="M54" s="162"/>
       <c r="N54" s="46"/>
     </row>
     <row r="55" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20744,7 +20652,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="117"/>
       <c r="E55" s="117"/>
@@ -20759,9 +20667,9 @@
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="195" t="s">
-        <v>398</v>
-      </c>
-      <c r="M55" s="193"/>
+        <v>396</v>
+      </c>
+      <c r="M55" s="162"/>
       <c r="N55" s="46"/>
     </row>
     <row r="56" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20783,9 +20691,9 @@
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
       <c r="L56" s="195" t="s">
-        <v>399</v>
-      </c>
-      <c r="M56" s="193"/>
+        <v>397</v>
+      </c>
+      <c r="M56" s="162"/>
       <c r="N56" s="46"/>
     </row>
     <row r="57" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20807,9 +20715,9 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="M57" s="193"/>
+        <v>398</v>
+      </c>
+      <c r="M57" s="162"/>
       <c r="N57" s="46"/>
     </row>
     <row r="58" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20831,9 +20739,9 @@
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="195" t="s">
-        <v>401</v>
-      </c>
-      <c r="M58" s="193"/>
+        <v>399</v>
+      </c>
+      <c r="M58" s="162"/>
       <c r="N58" s="46"/>
     </row>
     <row r="59" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20842,7 +20750,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="25"/>
@@ -20855,9 +20763,9 @@
         <v>9</v>
       </c>
       <c r="L59" s="195" t="s">
-        <v>446</v>
-      </c>
-      <c r="M59" s="193"/>
+        <v>444</v>
+      </c>
+      <c r="M59" s="162"/>
       <c r="N59" s="46"/>
     </row>
     <row r="60" spans="2:14" ht="81" x14ac:dyDescent="0.15">
@@ -20878,12 +20786,12 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="175" t="s">
-        <v>177</v>
-      </c>
-      <c r="M60" s="193"/>
+      <c r="L60" s="161" t="s">
+        <v>176</v>
+      </c>
+      <c r="M60" s="162"/>
       <c r="N60" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -20904,12 +20812,12 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="175" t="s">
-        <v>178</v>
-      </c>
-      <c r="M61" s="193"/>
+      <c r="L61" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="M61" s="162"/>
       <c r="N61" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -20930,12 +20838,12 @@
       <c r="I62" s="24"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="175" t="s">
-        <v>179</v>
-      </c>
-      <c r="M62" s="193"/>
+      <c r="L62" s="161" t="s">
+        <v>178</v>
+      </c>
+      <c r="M62" s="162"/>
       <c r="N62" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20951,8 +20859,8 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="173"/>
-      <c r="M63" s="174"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="166"/>
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20973,10 +20881,10 @@
       <c r="I64" s="24"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="175" t="s">
-        <v>180</v>
-      </c>
-      <c r="M64" s="176"/>
+      <c r="L64" s="161" t="s">
+        <v>179</v>
+      </c>
+      <c r="M64" s="164"/>
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -20997,10 +20905,10 @@
       <c r="I65" s="24"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="175" t="s">
-        <v>181</v>
-      </c>
-      <c r="M65" s="176"/>
+      <c r="L65" s="161" t="s">
+        <v>180</v>
+      </c>
+      <c r="M65" s="164"/>
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21021,10 +20929,10 @@
       <c r="I66" s="24"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="175" t="s">
-        <v>182</v>
-      </c>
-      <c r="M66" s="176"/>
+      <c r="L66" s="161" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66" s="164"/>
       <c r="N66" s="29"/>
     </row>
     <row r="67" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -21033,7 +20941,7 @@
         <v>39</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28" t="s">
@@ -21047,10 +20955,10 @@
       <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="175" t="s">
-        <v>183</v>
-      </c>
-      <c r="M67" s="176"/>
+      <c r="L67" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="M67" s="164"/>
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -21059,7 +20967,7 @@
         <v>40</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
@@ -21073,10 +20981,10 @@
         <v>9</v>
       </c>
       <c r="K68" s="25"/>
-      <c r="L68" s="175" t="s">
-        <v>184</v>
-      </c>
-      <c r="M68" s="176"/>
+      <c r="L68" s="161" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" s="164"/>
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21097,10 +21005,10 @@
       <c r="I69" s="24"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="175" t="s">
-        <v>321</v>
-      </c>
-      <c r="M69" s="176"/>
+      <c r="L69" s="161" t="s">
+        <v>319</v>
+      </c>
+      <c r="M69" s="164"/>
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21121,10 +21029,10 @@
       <c r="I70" s="24"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="M70" s="176"/>
+      <c r="L70" s="161" t="s">
+        <v>184</v>
+      </c>
+      <c r="M70" s="164"/>
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21133,7 +21041,7 @@
         <v>43</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
@@ -21147,10 +21055,10 @@
       <c r="I71" s="24"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="175" t="s">
-        <v>322</v>
-      </c>
-      <c r="M71" s="176"/>
+      <c r="L71" s="161" t="s">
+        <v>320</v>
+      </c>
+      <c r="M71" s="164"/>
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21171,10 +21079,10 @@
       <c r="I72" s="24"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
-      <c r="L72" s="175" t="s">
-        <v>186</v>
-      </c>
-      <c r="M72" s="193"/>
+      <c r="L72" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="M72" s="162"/>
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21195,10 +21103,10 @@
       </c>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="175" t="s">
-        <v>187</v>
-      </c>
-      <c r="M73" s="193"/>
+      <c r="L73" s="161" t="s">
+        <v>186</v>
+      </c>
+      <c r="M73" s="162"/>
       <c r="N73" s="29"/>
     </row>
     <row r="74" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21219,10 +21127,10 @@
         <v>9</v>
       </c>
       <c r="K74" s="25"/>
-      <c r="L74" s="175" t="s">
-        <v>188</v>
-      </c>
-      <c r="M74" s="193"/>
+      <c r="L74" s="161" t="s">
+        <v>187</v>
+      </c>
+      <c r="M74" s="162"/>
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21231,7 +21139,7 @@
         <v>47</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="25"/>
@@ -21243,10 +21151,10 @@
       <c r="K75" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L75" s="175" t="s">
-        <v>452</v>
-      </c>
-      <c r="M75" s="193"/>
+      <c r="L75" s="161" t="s">
+        <v>450</v>
+      </c>
+      <c r="M75" s="162"/>
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21267,10 +21175,10 @@
       <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="175" t="s">
-        <v>159</v>
-      </c>
-      <c r="M76" s="193"/>
+      <c r="L76" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="M76" s="162"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21291,10 +21199,10 @@
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
-      <c r="L77" s="175" t="s">
-        <v>338</v>
-      </c>
-      <c r="M77" s="193"/>
+      <c r="L77" s="161" t="s">
+        <v>336</v>
+      </c>
+      <c r="M77" s="162"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21310,8 +21218,8 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="173"/>
-      <c r="M78" s="174"/>
+      <c r="L78" s="165"/>
+      <c r="M78" s="166"/>
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21332,16 +21240,16 @@
       <c r="I79" s="24"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="175" t="s">
-        <v>189</v>
-      </c>
-      <c r="M79" s="176"/>
+      <c r="L79" s="161" t="s">
+        <v>188</v>
+      </c>
+      <c r="M79" s="164"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B80" s="1"/>
       <c r="C80" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -21351,8 +21259,8 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="173"/>
-      <c r="M80" s="174"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="166"/>
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21373,10 +21281,10 @@
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="175" t="s">
-        <v>209</v>
-      </c>
-      <c r="M81" s="176"/>
+      <c r="L81" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="M81" s="164"/>
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21392,8 +21300,8 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="173"/>
-      <c r="M82" s="174"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="166"/>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -21414,17 +21322,98 @@
       <c r="I83" s="35"/>
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
-      <c r="L83" s="175" t="s">
+      <c r="L83" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="M83" s="176"/>
+      <c r="M83" s="164"/>
       <c r="N83" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B12:N83"/>
   <mergeCells count="96">
+    <mergeCell ref="N33:N43"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="D33:D43"/>
+    <mergeCell ref="E33:E43"/>
+    <mergeCell ref="F33:F43"/>
+    <mergeCell ref="G33:G43"/>
+    <mergeCell ref="H33:H43"/>
+    <mergeCell ref="I33:I43"/>
+    <mergeCell ref="J33:J43"/>
+    <mergeCell ref="K33:K43"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -21440,87 +21429,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N33:N43"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D33:D43"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="F33:F43"/>
-    <mergeCell ref="G33:G43"/>
-    <mergeCell ref="H33:H43"/>
-    <mergeCell ref="I33:I43"/>
-    <mergeCell ref="J33:J43"/>
-    <mergeCell ref="K33:K43"/>
-    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -21546,9 +21454,9 @@
   <dimension ref="B1:N62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36:M36"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21577,40 +21485,40 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -21627,7 +21535,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -21664,10 +21572,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -21684,7 +21592,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -21729,33 +21637,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="169" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -21778,11 +21686,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="193"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -21797,8 +21705,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="174"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="166"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21806,25 +21714,25 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166" t="s">
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="175" t="s">
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="M14" s="164"/>
+      <c r="N14" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="M14" s="176"/>
-      <c r="N14" s="27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21832,19 +21740,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="176"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="164"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21852,19 +21760,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="196" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="176"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="197" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="164"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21880,8 +21788,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="174"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="166"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21902,12 +21810,12 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="196" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="176"/>
+      <c r="L18" s="197" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="164"/>
       <c r="N18" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21923,8 +21831,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="174"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="166"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21945,12 +21853,12 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="196" t="s">
+      <c r="L20" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="176"/>
+      <c r="M20" s="164"/>
       <c r="N20" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21971,10 +21879,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="196" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="176"/>
+      <c r="L21" s="197" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="164"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21990,8 +21898,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="174"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="166"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" ht="175.5" x14ac:dyDescent="0.15">
@@ -22012,12 +21920,12 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="196" t="s">
-        <v>454</v>
-      </c>
-      <c r="M23" s="176"/>
+      <c r="L23" s="197" t="s">
+        <v>452</v>
+      </c>
+      <c r="M23" s="164"/>
       <c r="N23" s="27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -22038,12 +21946,12 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="196" t="s">
-        <v>219</v>
-      </c>
-      <c r="M24" s="176"/>
+      <c r="L24" s="197" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" s="164"/>
       <c r="N24" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22064,10 +21972,10 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="196" t="s">
-        <v>158</v>
-      </c>
-      <c r="M25" s="176"/>
+      <c r="L25" s="197" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="164"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22076,7 +21984,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D26" s="129"/>
       <c r="E26" s="25"/>
@@ -22088,12 +21996,12 @@
       <c r="I26" s="129"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="175" t="s">
-        <v>450</v>
-      </c>
-      <c r="M26" s="176"/>
+      <c r="L26" s="161" t="s">
+        <v>448</v>
+      </c>
+      <c r="M26" s="164"/>
       <c r="N26" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -22101,23 +22009,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="M27" s="176"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="197" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="164"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -22125,21 +22033,21 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="196" t="s">
+      <c r="C28" s="185"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="176"/>
+      <c r="M28" s="164"/>
       <c r="N28" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22155,8 +22063,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="174"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="166"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22177,10 +22085,10 @@
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="196" t="s">
-        <v>404</v>
-      </c>
-      <c r="M30" s="176"/>
+      <c r="L30" s="197" t="s">
+        <v>402</v>
+      </c>
+      <c r="M30" s="164"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22201,10 +22109,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="196" t="s">
-        <v>403</v>
-      </c>
-      <c r="M31" s="176"/>
+      <c r="L31" s="197" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31" s="164"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22225,16 +22133,16 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="196" t="s">
-        <v>402</v>
-      </c>
-      <c r="M32" s="176"/>
+      <c r="L32" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="M32" s="164"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -22244,8 +22152,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="174"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="166"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22254,7 +22162,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
@@ -22266,12 +22174,12 @@
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="196" t="s">
-        <v>467</v>
-      </c>
-      <c r="M34" s="176"/>
+      <c r="L34" s="197" t="s">
+        <v>465</v>
+      </c>
+      <c r="M34" s="164"/>
       <c r="N34" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22280,7 +22188,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="34"/>
@@ -22292,10 +22200,10 @@
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="196" t="s">
-        <v>464</v>
-      </c>
-      <c r="M35" s="176"/>
+      <c r="L35" s="197" t="s">
+        <v>462</v>
+      </c>
+      <c r="M35" s="164"/>
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22304,7 +22212,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="34"/>
@@ -22317,7 +22225,7 @@
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
       <c r="L36" s="198" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M36" s="199"/>
       <c r="N36" s="29"/>
@@ -22335,8 +22243,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="197"/>
-      <c r="M37" s="174"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22357,10 +22265,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="M38" s="176"/>
+      <c r="L38" s="197" t="s">
+        <v>192</v>
+      </c>
+      <c r="M38" s="164"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22381,88 +22289,88 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="196" t="s">
-        <v>192</v>
-      </c>
-      <c r="M39" s="176"/>
+      <c r="L39" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" s="164"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="183">
+      <c r="B40" s="171">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="161" t="s">
-        <v>333</v>
-      </c>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="M40" s="176"/>
-      <c r="N40" s="189"/>
+      <c r="C40" s="174" t="s">
+        <v>331</v>
+      </c>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" s="164"/>
+      <c r="N40" s="168"/>
     </row>
     <row r="41" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="184"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
       <c r="L41" s="84" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M41" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="N41" s="169"/>
+    </row>
+    <row r="42" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="172"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="M42" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="N41" s="190"/>
-    </row>
-    <row r="42" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="184"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="184"/>
-      <c r="L42" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="M42" s="91" t="s">
-        <v>325</v>
-      </c>
-      <c r="N42" s="190"/>
+      <c r="N42" s="169"/>
     </row>
     <row r="43" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="185"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="188"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
+      <c r="K43" s="178"/>
       <c r="L43" s="81"/>
       <c r="M43" s="83"/>
-      <c r="N43" s="191"/>
+      <c r="N43" s="170"/>
     </row>
     <row r="44" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -22482,10 +22390,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="196" t="s">
-        <v>405</v>
-      </c>
-      <c r="M44" s="176"/>
+      <c r="L44" s="197" t="s">
+        <v>403</v>
+      </c>
+      <c r="M44" s="164"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22506,10 +22414,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="196" t="s">
-        <v>406</v>
-      </c>
-      <c r="M45" s="176"/>
+      <c r="L45" s="197" t="s">
+        <v>404</v>
+      </c>
+      <c r="M45" s="164"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -22530,10 +22438,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="196" t="s">
-        <v>407</v>
-      </c>
-      <c r="M46" s="176"/>
+      <c r="L46" s="197" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" s="164"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22554,10 +22462,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="196" t="s">
-        <v>408</v>
-      </c>
-      <c r="M47" s="176"/>
+      <c r="L47" s="197" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" s="164"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22578,10 +22486,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="196" t="s">
-        <v>409</v>
-      </c>
-      <c r="M48" s="193"/>
+      <c r="L48" s="197" t="s">
+        <v>407</v>
+      </c>
+      <c r="M48" s="162"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22597,8 +22505,8 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="197"/>
-      <c r="M49" s="174"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="166"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22619,10 +22527,10 @@
       <c r="I50" s="24"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="M50" s="176"/>
+      <c r="L50" s="197" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" s="164"/>
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="2:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22631,7 +22539,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="25"/>
@@ -22643,10 +22551,10 @@
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="196" t="s">
-        <v>144</v>
-      </c>
-      <c r="M51" s="176"/>
+      <c r="L51" s="197" t="s">
+        <v>143</v>
+      </c>
+      <c r="M51" s="164"/>
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22667,10 +22575,10 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="196" t="s">
-        <v>432</v>
-      </c>
-      <c r="M52" s="193"/>
+      <c r="L52" s="197" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" s="162"/>
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22691,10 +22599,10 @@
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="196" t="s">
-        <v>433</v>
-      </c>
-      <c r="M53" s="193"/>
+      <c r="L53" s="197" t="s">
+        <v>431</v>
+      </c>
+      <c r="M53" s="162"/>
       <c r="N53" s="29"/>
     </row>
     <row r="54" spans="2:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22715,10 +22623,10 @@
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="196" t="s">
-        <v>141</v>
-      </c>
-      <c r="M54" s="193"/>
+      <c r="L54" s="197" t="s">
+        <v>140</v>
+      </c>
+      <c r="M54" s="162"/>
       <c r="N54" s="29"/>
     </row>
     <row r="55" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22739,10 +22647,10 @@
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="196" t="s">
+      <c r="L55" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="M55" s="193"/>
+      <c r="M55" s="162"/>
       <c r="N55" s="29"/>
     </row>
     <row r="56" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22758,8 +22666,8 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="197"/>
-      <c r="M56" s="174"/>
+      <c r="L56" s="196"/>
+      <c r="M56" s="166"/>
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -22780,12 +22688,12 @@
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="196" t="s">
-        <v>456</v>
-      </c>
-      <c r="M57" s="176"/>
+      <c r="L57" s="197" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" s="164"/>
       <c r="N57" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22806,10 +22714,10 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="196" t="s">
+      <c r="L58" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="176"/>
+      <c r="M58" s="164"/>
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22830,10 +22738,10 @@
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="196" t="s">
-        <v>410</v>
-      </c>
-      <c r="M59" s="176"/>
+      <c r="L59" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M59" s="164"/>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22854,10 +22762,10 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="196" t="s">
-        <v>411</v>
-      </c>
-      <c r="M60" s="176"/>
+      <c r="L60" s="197" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" s="164"/>
       <c r="N60" s="27"/>
     </row>
     <row r="61" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -22878,12 +22786,12 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="196" t="s">
-        <v>457</v>
-      </c>
-      <c r="M61" s="193"/>
+      <c r="L61" s="197" t="s">
+        <v>455</v>
+      </c>
+      <c r="M61" s="162"/>
       <c r="N61" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="81" x14ac:dyDescent="0.15">
@@ -22892,7 +22800,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -22904,36 +22812,65 @@
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="196" t="s">
-        <v>194</v>
-      </c>
-      <c r="M62" s="193"/>
+      <c r="L62" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" s="162"/>
       <c r="N62" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B12:N62"/>
   <mergeCells count="83">
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
@@ -22950,54 +22887,25 @@
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -23022,7 +22930,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:M22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23051,36 +22959,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="19"/>
@@ -23117,10 +23025,10 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -23137,7 +23045,7 @@
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="39"/>
       <c r="C7" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -23168,10 +23076,10 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23216,33 +23124,33 @@
       <c r="N11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="181" t="s">
+      <c r="D12" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="169" t="s">
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="206"/>
-      <c r="N12" s="164" t="s">
+      <c r="M12" s="200"/>
+      <c r="N12" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="178"/>
-      <c r="C13" s="180"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
@@ -23265,11 +23173,11 @@
         <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L13" s="171"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L13" s="193"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="188"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -23284,8 +23192,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="201"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="202"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23306,93 +23214,93 @@
       <c r="I15" s="50"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="196" t="s">
-        <v>312</v>
-      </c>
-      <c r="M15" s="193"/>
+      <c r="L15" s="197" t="s">
+        <v>310</v>
+      </c>
+      <c r="M15" s="162"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="183">
+      <c r="B16" s="171">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="203" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166" t="s">
+      <c r="C16" s="204" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="175" t="s">
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="M16" s="164"/>
+      <c r="N16" s="168"/>
+    </row>
+    <row r="17" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="172"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="M17" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="M16" s="176"/>
-      <c r="N16" s="189"/>
-    </row>
-    <row r="17" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="184"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="M17" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="N17" s="190"/>
+      <c r="N17" s="169"/>
     </row>
     <row r="18" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="184"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M18" s="89" t="s">
-        <v>325</v>
-      </c>
-      <c r="N18" s="190"/>
+        <v>323</v>
+      </c>
+      <c r="N18" s="169"/>
     </row>
     <row r="19" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="202"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="191"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="170"/>
     </row>
     <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -23412,7 +23320,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -23424,10 +23332,10 @@
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="196" t="s">
-        <v>277</v>
-      </c>
-      <c r="M21" s="193"/>
+      <c r="L21" s="197" t="s">
+        <v>275</v>
+      </c>
+      <c r="M21" s="162"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23436,7 +23344,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="34"/>
@@ -23448,15 +23356,32 @@
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="196" t="s">
-        <v>427</v>
-      </c>
-      <c r="M22" s="193"/>
+      <c r="L22" s="197" t="s">
+        <v>425</v>
+      </c>
+      <c r="M22" s="162"/>
       <c r="N22" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:N22"/>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -23464,23 +23389,6 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:K12"/>
     <mergeCell ref="L12:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23501,7 +23409,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L77" sqref="L77"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23530,40 +23438,40 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -23580,7 +23488,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -23597,7 +23505,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -23619,10 +23527,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -23639,7 +23547,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -23684,33 +23592,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="169" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -23733,11 +23641,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="193"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -23752,8 +23660,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="174"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="166"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23761,25 +23669,25 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166" t="s">
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="175" t="s">
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="M14" s="164"/>
+      <c r="N14" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="M14" s="176"/>
-      <c r="N14" s="27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23787,19 +23695,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="196" t="s">
-        <v>196</v>
-      </c>
-      <c r="M15" s="176"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="197" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="164"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23807,19 +23715,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="196" t="s">
-        <v>195</v>
-      </c>
-      <c r="M16" s="176"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="197" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" s="164"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -23835,8 +23743,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="174"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="166"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23857,12 +23765,12 @@
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="196" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="176"/>
+      <c r="L18" s="197" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="164"/>
       <c r="N18" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -23878,8 +23786,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="174"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="166"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="202.5" x14ac:dyDescent="0.15">
@@ -23900,12 +23808,12 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="196" t="s">
-        <v>454</v>
-      </c>
-      <c r="M20" s="176"/>
+      <c r="L20" s="197" t="s">
+        <v>452</v>
+      </c>
+      <c r="M20" s="164"/>
       <c r="N20" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -23926,12 +23834,12 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="196" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" s="176"/>
+      <c r="L21" s="197" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="164"/>
       <c r="N21" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23952,10 +23860,10 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="196" t="s">
+      <c r="L22" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="193"/>
+      <c r="M22" s="162"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23964,7 +23872,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="25"/>
@@ -23976,12 +23884,12 @@
       <c r="I23" s="129"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="175" t="s">
-        <v>450</v>
-      </c>
-      <c r="M23" s="176"/>
+      <c r="L23" s="161" t="s">
+        <v>448</v>
+      </c>
+      <c r="M23" s="164"/>
       <c r="N23" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23989,23 +23897,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166" t="s">
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" s="193"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="197" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="162"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -24013,21 +23921,21 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="196" t="s">
+      <c r="C25" s="185"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="193"/>
+      <c r="M25" s="162"/>
       <c r="N25" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -24043,8 +23951,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="174"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="166"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24065,10 +23973,10 @@
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="196" t="s">
-        <v>404</v>
-      </c>
-      <c r="M27" s="193"/>
+      <c r="L27" s="197" t="s">
+        <v>402</v>
+      </c>
+      <c r="M27" s="162"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24089,10 +23997,10 @@
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="196" t="s">
-        <v>403</v>
-      </c>
-      <c r="M28" s="193"/>
+      <c r="L28" s="197" t="s">
+        <v>401</v>
+      </c>
+      <c r="M28" s="162"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24113,10 +24021,10 @@
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="196" t="s">
-        <v>402</v>
-      </c>
-      <c r="M29" s="193"/>
+      <c r="L29" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="M29" s="162"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -24132,8 +24040,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="174"/>
+      <c r="L30" s="196"/>
+      <c r="M30" s="166"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24154,10 +24062,10 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="M31" s="176"/>
+      <c r="L31" s="197" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" s="164"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24178,88 +24086,88 @@
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="196" t="s">
-        <v>192</v>
-      </c>
-      <c r="M32" s="176"/>
+      <c r="L32" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" s="164"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="183">
+      <c r="B33" s="171">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="161" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166" t="s">
+      <c r="C33" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="M33" s="176"/>
-      <c r="N33" s="189"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="M33" s="164"/>
+      <c r="N33" s="168"/>
     </row>
     <row r="34" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="208"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
       <c r="L34" s="84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M34" s="84" t="s">
-        <v>323</v>
-      </c>
-      <c r="N34" s="190"/>
+        <v>321</v>
+      </c>
+      <c r="N34" s="169"/>
     </row>
     <row r="35" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="208"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="184"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
       <c r="L35" s="86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M35" s="91" t="s">
-        <v>325</v>
-      </c>
-      <c r="N35" s="190"/>
+        <v>323</v>
+      </c>
+      <c r="N35" s="169"/>
     </row>
     <row r="36" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="209"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="191"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="170"/>
     </row>
     <row r="37" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -24279,10 +24187,10 @@
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="196" t="s">
-        <v>405</v>
-      </c>
-      <c r="M37" s="193"/>
+      <c r="L37" s="197" t="s">
+        <v>403</v>
+      </c>
+      <c r="M37" s="162"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24303,10 +24211,10 @@
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="196" t="s">
-        <v>406</v>
-      </c>
-      <c r="M38" s="193"/>
+      <c r="L38" s="197" t="s">
+        <v>404</v>
+      </c>
+      <c r="M38" s="162"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24327,10 +24235,10 @@
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="196" t="s">
-        <v>407</v>
-      </c>
-      <c r="M39" s="193"/>
+      <c r="L39" s="197" t="s">
+        <v>405</v>
+      </c>
+      <c r="M39" s="162"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24351,10 +24259,10 @@
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="196" t="s">
-        <v>408</v>
-      </c>
-      <c r="M40" s="193"/>
+      <c r="L40" s="197" t="s">
+        <v>406</v>
+      </c>
+      <c r="M40" s="162"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24375,10 +24283,10 @@
       </c>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="196" t="s">
-        <v>409</v>
-      </c>
-      <c r="M41" s="193"/>
+      <c r="L41" s="197" t="s">
+        <v>407</v>
+      </c>
+      <c r="M41" s="162"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24399,10 +24307,10 @@
       </c>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="175" t="s">
-        <v>197</v>
-      </c>
-      <c r="M42" s="193"/>
+      <c r="L42" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="M42" s="162"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -24411,7 +24319,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="25"/>
@@ -24423,10 +24331,10 @@
       </c>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="175" t="s">
-        <v>198</v>
-      </c>
-      <c r="M43" s="193"/>
+      <c r="L43" s="161" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="162"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24435,7 +24343,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="25"/>
@@ -24447,16 +24355,16 @@
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="175" t="s">
-        <v>367</v>
-      </c>
-      <c r="M44" s="193"/>
+      <c r="L44" s="161" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" s="162"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
       <c r="C45" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -24466,8 +24374,8 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="197"/>
-      <c r="M45" s="174"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="166"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="2:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24488,16 +24396,16 @@
       </c>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="196" t="s">
-        <v>368</v>
-      </c>
-      <c r="M46" s="176"/>
+      <c r="L46" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="M46" s="164"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -24507,8 +24415,8 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="197"/>
-      <c r="M47" s="174"/>
+      <c r="L47" s="196"/>
+      <c r="M47" s="166"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24517,7 +24425,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -24529,47 +24437,37 @@
       </c>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
-      <c r="L48" s="196" t="s">
-        <v>276</v>
-      </c>
-      <c r="M48" s="176"/>
+      <c r="L48" s="197" t="s">
+        <v>274</v>
+      </c>
+      <c r="M48" s="164"/>
       <c r="N48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N48"/>
   <mergeCells count="70">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L11:M12"/>
@@ -24586,28 +24484,38 @@
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:K11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -24663,36 +24571,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(OpenStack)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -24803,33 +24711,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="169" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -24852,11 +24760,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="193"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
@@ -24864,7 +24772,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="210" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D13" s="211"/>
       <c r="E13" s="211"/>
@@ -24937,36 +24845,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="str">
+      <c r="B3" s="146" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -25077,33 +24985,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="169" t="s">
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="164" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="187" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -25126,11 +25034,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="165"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="193"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
@@ -25138,7 +25046,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="210" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D13" s="211"/>
       <c r="E13" s="211"/>

--- a/asset/Learn_ja/IT Automation HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/IT Automation HA構成インストールマニュアル.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$N$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HA構成(DBMS)'!$A$1:$N$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'HA構成(Web・AP)'!$A$1:$N$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'HA構成(外部ストレージ)'!$A$1:$O$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'HA構成(外部ストレージ)'!$A$1:$O$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$X$125</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'HA構成(Ansible Tower)'!$12:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'HA構成(Ansible)'!$11:$12</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="473">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -4759,33 +4759,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>）/data_relay_storage/cobbler_driver</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>/（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任意の共有用ディレクトリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）/data_relay_storage/dsc_driver</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -12803,7 +12776,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13196,6 +13169,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14477,14 +14453,14 @@
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="132"/>
-      <c r="Q73" s="132"/>
-      <c r="R73" s="132"/>
-      <c r="S73" s="132"/>
-      <c r="T73" s="132"/>
-      <c r="U73" s="132"/>
+      <c r="N73" s="132"/>
+      <c r="O73" s="133"/>
+      <c r="P73" s="133"/>
+      <c r="Q73" s="133"/>
+      <c r="R73" s="133"/>
+      <c r="S73" s="133"/>
+      <c r="T73" s="133"/>
+      <c r="U73" s="133"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -14627,7 +14603,7 @@
         <v>244</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D82" s="95"/>
       <c r="E82" s="17"/>
@@ -14645,7 +14621,7 @@
     <row r="83" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="59"/>
       <c r="C83" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D83" s="95"/>
       <c r="E83" s="17"/>
@@ -14662,7 +14638,7 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C84" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="17"/>
@@ -14695,30 +14671,30 @@
     </row>
     <row r="86" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
-      <c r="C86" s="136" t="s">
-        <v>315</v>
-      </c>
-      <c r="D86" s="140" t="s">
-        <v>370</v>
-      </c>
-      <c r="E86" s="134" t="s">
+      <c r="C86" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="141" t="s">
         <v>369</v>
       </c>
-      <c r="F86" s="137" t="s">
+      <c r="E86" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="F86" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="G86" s="138"/>
-      <c r="H86" s="138"/>
-      <c r="I86" s="138"/>
-      <c r="J86" s="139"/>
-      <c r="K86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
+      <c r="J86" s="140"/>
+      <c r="K86" s="140"/>
       <c r="L86" s="19"/>
     </row>
     <row r="87" spans="2:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="64"/>
-      <c r="C87" s="136"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="135"/>
+      <c r="C87" s="137"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="136"/>
       <c r="F87" s="97" t="s">
         <v>250</v>
       </c>
@@ -14732,10 +14708,10 @@
         <v>248</v>
       </c>
       <c r="J87" s="121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K87" s="120" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L87" s="19"/>
     </row>
@@ -14745,10 +14721,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E88" s="126" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F88" s="99" t="s">
         <v>249</v>
@@ -14776,10 +14752,10 @@
         <v>2</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E89" s="127" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F89" s="99" t="s">
         <v>249</v>
@@ -14807,10 +14783,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E90" s="127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F90" s="99" t="s">
         <v>249</v>
@@ -14838,10 +14814,10 @@
         <v>4</v>
       </c>
       <c r="D91" s="98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E91" s="127" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F91" s="99"/>
       <c r="G91" s="99" t="s">
@@ -14861,10 +14837,10 @@
         <v>5</v>
       </c>
       <c r="D92" s="98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E92" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F92" s="99"/>
       <c r="G92" s="99"/>
@@ -14882,10 +14858,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E93" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F93" s="99"/>
       <c r="G93" s="99"/>
@@ -14906,7 +14882,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="99"/>
@@ -14924,10 +14900,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="E95" s="126" t="s">
         <v>440</v>
-      </c>
-      <c r="E95" s="126" t="s">
-        <v>441</v>
       </c>
       <c r="F95" s="99"/>
       <c r="G95" s="99"/>
@@ -14945,10 +14921,10 @@
         <v>9</v>
       </c>
       <c r="D96" s="98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E96" s="127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F96" s="99" t="s">
         <v>249</v>
@@ -15035,14 +15011,14 @@
       <c r="K100" s="102"/>
       <c r="L100" s="102"/>
       <c r="M100" s="102"/>
-      <c r="N100" s="131"/>
-      <c r="O100" s="132"/>
-      <c r="P100" s="132"/>
-      <c r="Q100" s="132"/>
-      <c r="R100" s="132"/>
-      <c r="S100" s="132"/>
-      <c r="T100" s="132"/>
-      <c r="U100" s="132"/>
+      <c r="N100" s="132"/>
+      <c r="O100" s="133"/>
+      <c r="P100" s="133"/>
+      <c r="Q100" s="133"/>
+      <c r="R100" s="133"/>
+      <c r="S100" s="133"/>
+      <c r="T100" s="133"/>
+      <c r="U100" s="133"/>
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
@@ -15099,7 +15075,7 @@
     <row r="104" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="106"/>
       <c r="C104" s="125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D104" s="60"/>
       <c r="E104" s="60"/>
@@ -15171,7 +15147,7 @@
         <v>226</v>
       </c>
       <c r="C108" s="106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D108" s="106"/>
       <c r="E108" s="17"/>
@@ -15205,7 +15181,7 @@
     <row r="110" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="111"/>
       <c r="C110" s="125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D110" s="60"/>
       <c r="E110" s="60"/>
@@ -15223,7 +15199,7 @@
     <row r="111" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="111"/>
       <c r="C111" s="106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D111" s="106"/>
       <c r="E111" s="17"/>
@@ -15241,7 +15217,7 @@
     <row r="112" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="111"/>
       <c r="C112" s="106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="106"/>
       <c r="E112" s="17"/>
@@ -15259,7 +15235,7 @@
     <row r="113" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="111"/>
       <c r="C113" s="125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D113" s="60"/>
       <c r="E113" s="60"/>
@@ -15277,7 +15253,7 @@
     <row r="114" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="111"/>
       <c r="C114" s="106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="106"/>
       <c r="E114" s="17"/>
@@ -15295,7 +15271,7 @@
     <row r="115" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B115" s="111"/>
       <c r="C115" s="106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="106"/>
       <c r="E115" s="17"/>
@@ -15359,14 +15335,14 @@
       <c r="K118" s="66"/>
       <c r="L118" s="66"/>
       <c r="M118" s="66"/>
-      <c r="N118" s="133"/>
-      <c r="O118" s="132"/>
-      <c r="P118" s="132"/>
-      <c r="Q118" s="132"/>
-      <c r="R118" s="132"/>
-      <c r="S118" s="132"/>
-      <c r="T118" s="132"/>
-      <c r="U118" s="132"/>
+      <c r="N118" s="134"/>
+      <c r="O118" s="133"/>
+      <c r="P118" s="133"/>
+      <c r="Q118" s="133"/>
+      <c r="R118" s="133"/>
+      <c r="S118" s="133"/>
+      <c r="T118" s="133"/>
+      <c r="U118" s="133"/>
     </row>
     <row r="119" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B119" s="17"/>
@@ -15423,7 +15399,7 @@
     <row r="122" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="61"/>
       <c r="C122" s="125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D122" s="60"/>
       <c r="E122" s="60"/>
@@ -15555,18 +15531,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19" t="s">
         <v>108</v>
       </c>
@@ -15574,19 +15550,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="55" t="s">
         <v>264</v>
       </c>
@@ -15707,33 +15683,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="191" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="193"/>
+      <c r="N11" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -15756,11 +15732,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="193"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L12" s="194"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -15775,8 +15751,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="166"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="167"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -15784,25 +15760,25 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" s="164"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" s="165"/>
       <c r="N14" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15810,19 +15786,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="197" t="s">
+      <c r="C15" s="186"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="164"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -15830,19 +15806,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="197" t="s">
+      <c r="C16" s="187"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="198" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="164"/>
+      <c r="M16" s="165"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -15858,8 +15834,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="166"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="167"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -15880,10 +15856,10 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="197" t="s">
+      <c r="L18" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="M18" s="164"/>
+      <c r="M18" s="165"/>
       <c r="N18" s="27" t="s">
         <v>115</v>
       </c>
@@ -15901,8 +15877,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="166"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="167"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -15923,10 +15899,10 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="197" t="s">
+      <c r="L20" s="198" t="s">
         <v>199</v>
       </c>
-      <c r="M20" s="164"/>
+      <c r="M20" s="165"/>
       <c r="N20" s="27" t="s">
         <v>104</v>
       </c>
@@ -15949,10 +15925,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="197" t="s">
+      <c r="L21" s="198" t="s">
         <v>200</v>
       </c>
-      <c r="M21" s="164"/>
+      <c r="M21" s="165"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -15968,8 +15944,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="196"/>
-      <c r="M22" s="166"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="167"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" ht="189" x14ac:dyDescent="0.15">
@@ -15990,12 +15966,12 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="197" t="s">
-        <v>452</v>
-      </c>
-      <c r="M23" s="164"/>
+      <c r="L23" s="198" t="s">
+        <v>451</v>
+      </c>
+      <c r="M23" s="165"/>
       <c r="N23" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -16016,10 +15992,10 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="197" t="s">
+      <c r="L24" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="M24" s="162"/>
+      <c r="M24" s="163"/>
       <c r="N24" s="27" t="s">
         <v>218</v>
       </c>
@@ -16042,10 +16018,10 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="197" t="s">
+      <c r="L25" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="162"/>
+      <c r="M25" s="163"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -16054,7 +16030,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>9</v>
@@ -16066,12 +16042,12 @@
       <c r="I26" s="129"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="161" t="s">
+      <c r="L26" s="162" t="s">
+        <v>447</v>
+      </c>
+      <c r="M26" s="165"/>
+      <c r="N26" s="27" t="s">
         <v>448</v>
-      </c>
-      <c r="M26" s="164"/>
-      <c r="N26" s="27" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16079,23 +16055,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="177" t="s">
+      <c r="D27" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="197" t="s">
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="198" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="162"/>
+      <c r="M27" s="163"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -16103,19 +16079,19 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="197" t="s">
+      <c r="C28" s="186"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="162"/>
+      <c r="M28" s="163"/>
       <c r="N28" s="27" t="s">
         <v>116</v>
       </c>
@@ -16133,8 +16109,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="166"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="167"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16155,10 +16131,10 @@
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="197" t="s">
-        <v>402</v>
-      </c>
-      <c r="M30" s="164"/>
+      <c r="L30" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="M30" s="165"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16179,10 +16155,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="197" t="s">
-        <v>401</v>
-      </c>
-      <c r="M31" s="164"/>
+      <c r="L31" s="198" t="s">
+        <v>400</v>
+      </c>
+      <c r="M31" s="165"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16203,10 +16179,10 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="197" t="s">
-        <v>410</v>
-      </c>
-      <c r="M32" s="164"/>
+      <c r="L32" s="198" t="s">
+        <v>409</v>
+      </c>
+      <c r="M32" s="165"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16222,8 +16198,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="166"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="167"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -16232,7 +16208,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>9</v>
@@ -16244,12 +16220,12 @@
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="197" t="s">
-        <v>465</v>
-      </c>
-      <c r="M34" s="164"/>
+      <c r="L34" s="198" t="s">
+        <v>464</v>
+      </c>
+      <c r="M34" s="165"/>
       <c r="N34" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16258,7 +16234,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>9</v>
@@ -16270,10 +16246,10 @@
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="197" t="s">
-        <v>462</v>
-      </c>
-      <c r="M35" s="164"/>
+      <c r="L35" s="198" t="s">
+        <v>461</v>
+      </c>
+      <c r="M35" s="165"/>
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16282,7 +16258,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>9</v>
@@ -16294,10 +16270,10 @@
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
-      <c r="L36" s="198" t="s">
-        <v>464</v>
-      </c>
-      <c r="M36" s="199"/>
+      <c r="L36" s="199" t="s">
+        <v>463</v>
+      </c>
+      <c r="M36" s="200"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -16313,8 +16289,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="166"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="167"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16335,10 +16311,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="197" t="s">
+      <c r="L38" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="M38" s="164"/>
+      <c r="M38" s="165"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16359,10 +16335,10 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="197" t="s">
-        <v>411</v>
-      </c>
-      <c r="M39" s="164"/>
+      <c r="L39" s="198" t="s">
+        <v>410</v>
+      </c>
+      <c r="M39" s="165"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16383,10 +16359,10 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="197" t="s">
-        <v>412</v>
-      </c>
-      <c r="M40" s="164"/>
+      <c r="L40" s="198" t="s">
+        <v>411</v>
+      </c>
+      <c r="M40" s="165"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16407,10 +16383,10 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="197" t="s">
+      <c r="L41" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="M41" s="164"/>
+      <c r="M41" s="165"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16431,10 +16407,10 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="197" t="s">
+      <c r="L42" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="M42" s="162"/>
+      <c r="M42" s="163"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -16455,10 +16431,10 @@
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="197" t="s">
-        <v>413</v>
-      </c>
-      <c r="M43" s="162"/>
+      <c r="L43" s="198" t="s">
+        <v>412</v>
+      </c>
+      <c r="M43" s="163"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -16479,10 +16455,10 @@
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="197" t="s">
-        <v>414</v>
-      </c>
-      <c r="M44" s="162"/>
+      <c r="L44" s="198" t="s">
+        <v>413</v>
+      </c>
+      <c r="M44" s="163"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -16503,10 +16479,10 @@
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="197" t="s">
-        <v>415</v>
-      </c>
-      <c r="M45" s="162"/>
+      <c r="L45" s="198" t="s">
+        <v>414</v>
+      </c>
+      <c r="M45" s="163"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16527,10 +16503,10 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="195" t="s">
-        <v>390</v>
-      </c>
-      <c r="M46" s="162"/>
+      <c r="L46" s="196" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" s="163"/>
       <c r="N46" s="46"/>
     </row>
     <row r="47" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16551,10 +16527,10 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="195" t="s">
-        <v>391</v>
-      </c>
-      <c r="M47" s="162"/>
+      <c r="L47" s="196" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" s="163"/>
       <c r="N47" s="46"/>
     </row>
     <row r="48" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16577,10 +16553,10 @@
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="195" t="s">
-        <v>392</v>
-      </c>
-      <c r="M48" s="162"/>
+      <c r="L48" s="196" t="s">
+        <v>391</v>
+      </c>
+      <c r="M48" s="163"/>
       <c r="N48" s="46"/>
     </row>
     <row r="49" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16603,10 +16579,10 @@
         <v>9</v>
       </c>
       <c r="K49" s="25"/>
-      <c r="L49" s="195" t="s">
-        <v>393</v>
-      </c>
-      <c r="M49" s="162"/>
+      <c r="L49" s="196" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49" s="163"/>
       <c r="N49" s="46"/>
     </row>
     <row r="50" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16627,10 +16603,10 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="195" t="s">
-        <v>416</v>
-      </c>
-      <c r="M50" s="162"/>
+      <c r="L50" s="196" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" s="163"/>
       <c r="N50" s="46"/>
     </row>
     <row r="51" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16651,10 +16627,10 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="195" t="s">
-        <v>417</v>
-      </c>
-      <c r="M51" s="162"/>
+      <c r="L51" s="196" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" s="163"/>
       <c r="N51" s="46"/>
     </row>
     <row r="52" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16677,10 +16653,10 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="M52" s="162"/>
+      <c r="L52" s="196" t="s">
+        <v>395</v>
+      </c>
+      <c r="M52" s="163"/>
       <c r="N52" s="46"/>
     </row>
     <row r="53" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16701,10 +16677,10 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="195" t="s">
-        <v>418</v>
-      </c>
-      <c r="M53" s="162"/>
+      <c r="L53" s="196" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" s="163"/>
       <c r="N53" s="46"/>
     </row>
     <row r="54" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16725,10 +16701,10 @@
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="195" t="s">
-        <v>419</v>
-      </c>
-      <c r="M54" s="162"/>
+      <c r="L54" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" s="163"/>
       <c r="N54" s="46"/>
     </row>
     <row r="55" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16749,10 +16725,10 @@
         <v>9</v>
       </c>
       <c r="K55" s="25"/>
-      <c r="L55" s="195" t="s">
-        <v>399</v>
-      </c>
-      <c r="M55" s="162"/>
+      <c r="L55" s="196" t="s">
+        <v>398</v>
+      </c>
+      <c r="M55" s="163"/>
       <c r="N55" s="46"/>
     </row>
     <row r="56" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16761,7 +16737,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="25"/>
@@ -16773,10 +16749,10 @@
       <c r="K56" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L56" s="195" t="s">
-        <v>444</v>
-      </c>
-      <c r="M56" s="162"/>
+      <c r="L56" s="196" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" s="163"/>
       <c r="N56" s="46"/>
     </row>
     <row r="57" spans="2:14" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -16797,10 +16773,10 @@
       <c r="I57" s="24"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="161" t="s">
+      <c r="L57" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="M57" s="162"/>
+      <c r="M57" s="163"/>
       <c r="N57" s="29" t="s">
         <v>148</v>
       </c>
@@ -16823,10 +16799,10 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="197" t="s">
+      <c r="L58" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="M58" s="162"/>
+      <c r="M58" s="163"/>
       <c r="N58" s="29" t="s">
         <v>117</v>
       </c>
@@ -16836,23 +16812,23 @@
         <f>MAX(B$11:B58)+1</f>
         <v>40</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="197" t="s">
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="M59" s="162"/>
+      <c r="M59" s="163"/>
       <c r="N59" s="29" t="s">
         <v>126</v>
       </c>
@@ -16870,238 +16846,238 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="196"/>
-      <c r="M60" s="166"/>
+      <c r="L60" s="197"/>
+      <c r="M60" s="167"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="171">
+      <c r="B61" s="172">
         <f>MAX(B$11:B60)+1</f>
         <v>41</v>
       </c>
-      <c r="C61" s="204" t="s">
+      <c r="C61" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="177" t="s">
+      <c r="D61" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="177"/>
-      <c r="F61" s="177"/>
-      <c r="G61" s="177"/>
-      <c r="H61" s="177"/>
-      <c r="I61" s="177"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="M61" s="164"/>
-      <c r="N61" s="168"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="178"/>
+      <c r="G61" s="178"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="178"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
+      <c r="L61" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="M61" s="165"/>
+      <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="172"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="172"/>
-      <c r="K62" s="172"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="173"/>
+      <c r="F62" s="173"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="173"/>
+      <c r="J62" s="173"/>
+      <c r="K62" s="173"/>
       <c r="L62" s="93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="N62" s="169"/>
+        <v>320</v>
+      </c>
+      <c r="N62" s="170"/>
     </row>
     <row r="63" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="172"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="172"/>
-      <c r="K63" s="172"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="206"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="173"/>
+      <c r="J63" s="173"/>
+      <c r="K63" s="173"/>
       <c r="L63" s="86" t="s">
+        <v>351</v>
+      </c>
+      <c r="M63" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="N63" s="170"/>
+    </row>
+    <row r="64" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="173"/>
+      <c r="C64" s="206"/>
+      <c r="D64" s="173"/>
+      <c r="E64" s="173"/>
+      <c r="F64" s="173"/>
+      <c r="G64" s="173"/>
+      <c r="H64" s="173"/>
+      <c r="I64" s="173"/>
+      <c r="J64" s="173"/>
+      <c r="K64" s="173"/>
+      <c r="L64" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="M63" s="91" t="s">
+      <c r="M64" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="N64" s="170"/>
+    </row>
+    <row r="65" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="173"/>
+      <c r="C65" s="206"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="173"/>
+      <c r="F65" s="173"/>
+      <c r="G65" s="173"/>
+      <c r="H65" s="173"/>
+      <c r="I65" s="173"/>
+      <c r="J65" s="173"/>
+      <c r="K65" s="173"/>
+      <c r="L65" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="M65" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="N63" s="169"/>
-    </row>
-    <row r="64" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="172"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="172"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="172"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="172"/>
-      <c r="J64" s="172"/>
-      <c r="K64" s="172"/>
-      <c r="L64" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="M64" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="N64" s="169"/>
-    </row>
-    <row r="65" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="172"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="172"/>
-      <c r="K65" s="172"/>
-      <c r="L65" s="86" t="s">
+      <c r="N65" s="170"/>
+    </row>
+    <row r="66" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="173"/>
+      <c r="C66" s="206"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="173"/>
+      <c r="F66" s="173"/>
+      <c r="G66" s="173"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="173"/>
+      <c r="K66" s="173"/>
+      <c r="L66" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="M65" s="91" t="s">
+      <c r="M66" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="N65" s="169"/>
-    </row>
-    <row r="66" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="172"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="172"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="172"/>
-      <c r="J66" s="172"/>
-      <c r="K66" s="172"/>
-      <c r="L66" s="86" t="s">
+      <c r="N66" s="170"/>
+    </row>
+    <row r="67" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="173"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="173"/>
+      <c r="E67" s="173"/>
+      <c r="F67" s="173"/>
+      <c r="G67" s="173"/>
+      <c r="H67" s="173"/>
+      <c r="I67" s="173"/>
+      <c r="J67" s="173"/>
+      <c r="K67" s="173"/>
+      <c r="L67" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="M66" s="91" t="s">
+      <c r="M67" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="N66" s="169"/>
-    </row>
-    <row r="67" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="172"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="172"/>
-      <c r="H67" s="172"/>
-      <c r="I67" s="172"/>
-      <c r="J67" s="172"/>
-      <c r="K67" s="172"/>
-      <c r="L67" s="86" t="s">
+      <c r="N67" s="170"/>
+    </row>
+    <row r="68" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="173"/>
+      <c r="C68" s="206"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
+      <c r="K68" s="173"/>
+      <c r="L68" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="M67" s="91" t="s">
+      <c r="M68" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="N67" s="169"/>
-    </row>
-    <row r="68" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="172"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="172"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
-      <c r="J68" s="172"/>
-      <c r="K68" s="172"/>
-      <c r="L68" s="86" t="s">
+      <c r="N68" s="170"/>
+    </row>
+    <row r="69" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="173"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="173"/>
+      <c r="E69" s="173"/>
+      <c r="F69" s="173"/>
+      <c r="G69" s="173"/>
+      <c r="H69" s="173"/>
+      <c r="I69" s="173"/>
+      <c r="J69" s="173"/>
+      <c r="K69" s="173"/>
+      <c r="L69" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="M68" s="91" t="s">
+      <c r="M69" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="N68" s="169"/>
-    </row>
-    <row r="69" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="172"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="172"/>
-      <c r="K69" s="172"/>
-      <c r="L69" s="86" t="s">
+      <c r="N69" s="170"/>
+    </row>
+    <row r="70" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="173"/>
+      <c r="C70" s="206"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
+      <c r="F70" s="173"/>
+      <c r="G70" s="173"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="173"/>
+      <c r="J70" s="173"/>
+      <c r="K70" s="173"/>
+      <c r="L70" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="M69" s="91" t="s">
+      <c r="M70" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="N69" s="169"/>
-    </row>
-    <row r="70" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="172"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="172"/>
-      <c r="G70" s="172"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="172"/>
-      <c r="J70" s="172"/>
-      <c r="K70" s="172"/>
-      <c r="L70" s="86" t="s">
+      <c r="N70" s="170"/>
+    </row>
+    <row r="71" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="173"/>
+      <c r="C71" s="206"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="173"/>
+      <c r="F71" s="173"/>
+      <c r="G71" s="173"/>
+      <c r="H71" s="173"/>
+      <c r="I71" s="173"/>
+      <c r="J71" s="173"/>
+      <c r="K71" s="173"/>
+      <c r="L71" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="M70" s="91" t="s">
+      <c r="M71" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="N70" s="169"/>
-    </row>
-    <row r="71" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="172"/>
-      <c r="C71" s="205"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="172"/>
-      <c r="G71" s="172"/>
-      <c r="H71" s="172"/>
-      <c r="I71" s="172"/>
-      <c r="J71" s="172"/>
-      <c r="K71" s="172"/>
-      <c r="L71" s="86" t="s">
-        <v>360</v>
-      </c>
-      <c r="M71" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="N71" s="169"/>
+      <c r="N71" s="170"/>
     </row>
     <row r="72" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="173"/>
-      <c r="C72" s="217"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="178"/>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="178"/>
-      <c r="J72" s="178"/>
-      <c r="K72" s="178"/>
-      <c r="L72" s="161"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="170"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="218"/>
+      <c r="D72" s="179"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
+      <c r="G72" s="179"/>
+      <c r="H72" s="179"/>
+      <c r="I72" s="179"/>
+      <c r="J72" s="179"/>
+      <c r="K72" s="179"/>
+      <c r="L72" s="162"/>
+      <c r="M72" s="165"/>
+      <c r="N72" s="171"/>
     </row>
     <row r="73" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B73" s="1"/>
@@ -17116,8 +17092,8 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="196"/>
-      <c r="M73" s="166"/>
+      <c r="L73" s="197"/>
+      <c r="M73" s="167"/>
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="2:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17138,10 +17114,10 @@
       <c r="I74" s="24"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="197" t="s">
+      <c r="L74" s="198" t="s">
         <v>208</v>
       </c>
-      <c r="M74" s="164"/>
+      <c r="M74" s="165"/>
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17162,10 +17138,10 @@
       <c r="I75" s="69"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="197" t="s">
-        <v>420</v>
-      </c>
-      <c r="M75" s="162"/>
+      <c r="L75" s="198" t="s">
+        <v>419</v>
+      </c>
+      <c r="M75" s="163"/>
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17186,10 +17162,10 @@
       <c r="I76" s="69"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="197" t="s">
-        <v>421</v>
-      </c>
-      <c r="M76" s="162"/>
+      <c r="L76" s="198" t="s">
+        <v>420</v>
+      </c>
+      <c r="M76" s="163"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17210,10 +17186,10 @@
       <c r="I77" s="69"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="197" t="s">
-        <v>422</v>
-      </c>
-      <c r="M77" s="162"/>
+      <c r="L77" s="198" t="s">
+        <v>421</v>
+      </c>
+      <c r="M77" s="163"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17234,10 +17210,10 @@
       <c r="I78" s="35"/>
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
-      <c r="L78" s="197" t="s">
-        <v>423</v>
-      </c>
-      <c r="M78" s="162"/>
+      <c r="L78" s="198" t="s">
+        <v>422</v>
+      </c>
+      <c r="M78" s="163"/>
       <c r="N78" s="29"/>
     </row>
     <row r="79" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17258,10 +17234,10 @@
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
-      <c r="L79" s="197" t="s">
+      <c r="L79" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="M79" s="162"/>
+      <c r="M79" s="163"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -17277,8 +17253,8 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="196"/>
-      <c r="M80" s="166"/>
+      <c r="L80" s="197"/>
+      <c r="M80" s="167"/>
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -17299,30 +17275,30 @@
       <c r="I81" s="24"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
-      <c r="L81" s="197" t="s">
+      <c r="L81" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="M81" s="164"/>
+      <c r="M81" s="165"/>
       <c r="N81" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B82" s="1"/>
-      <c r="C82" s="213" t="s">
+      <c r="C82" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="214"/>
-      <c r="E82" s="214"/>
-      <c r="F82" s="214"/>
-      <c r="G82" s="214"/>
-      <c r="H82" s="214"/>
-      <c r="I82" s="214"/>
-      <c r="J82" s="214"/>
-      <c r="K82" s="214"/>
-      <c r="L82" s="214"/>
-      <c r="M82" s="214"/>
-      <c r="N82" s="215"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="215"/>
+      <c r="F82" s="215"/>
+      <c r="G82" s="215"/>
+      <c r="H82" s="215"/>
+      <c r="I82" s="215"/>
+      <c r="J82" s="215"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="215"/>
+      <c r="N82" s="216"/>
     </row>
     <row r="83" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="1">
@@ -17342,10 +17318,10 @@
       <c r="I83" s="24"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
-      <c r="L83" s="219" t="s">
+      <c r="L83" s="220" t="s">
         <v>262</v>
       </c>
-      <c r="M83" s="164"/>
+      <c r="M83" s="165"/>
       <c r="N83" s="29" t="s">
         <v>268</v>
       </c>
@@ -17368,10 +17344,10 @@
       <c r="I84" s="24"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
-      <c r="L84" s="197" t="s">
+      <c r="L84" s="198" t="s">
         <v>164</v>
       </c>
-      <c r="M84" s="164"/>
+      <c r="M84" s="165"/>
       <c r="N84" s="29"/>
     </row>
     <row r="85" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -17392,10 +17368,10 @@
       <c r="I85" s="47"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="197" t="s">
+      <c r="L85" s="198" t="s">
         <v>206</v>
       </c>
-      <c r="M85" s="164"/>
+      <c r="M85" s="165"/>
       <c r="N85" s="29"/>
     </row>
     <row r="86" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17416,10 +17392,10 @@
       </c>
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
-      <c r="L86" s="197" t="s">
+      <c r="L86" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="M86" s="164"/>
+      <c r="M86" s="165"/>
       <c r="N86" s="29"/>
     </row>
     <row r="87" spans="2:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17440,28 +17416,28 @@
       </c>
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
-      <c r="L87" s="197" t="s">
-        <v>424</v>
-      </c>
-      <c r="M87" s="164"/>
+      <c r="L87" s="198" t="s">
+        <v>423</v>
+      </c>
+      <c r="M87" s="165"/>
       <c r="N87" s="49"/>
     </row>
     <row r="88" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B88" s="1"/>
-      <c r="C88" s="213" t="s">
+      <c r="C88" s="214" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="214"/>
-      <c r="E88" s="214"/>
-      <c r="F88" s="214"/>
-      <c r="G88" s="214"/>
-      <c r="H88" s="214"/>
-      <c r="I88" s="214"/>
-      <c r="J88" s="214"/>
-      <c r="K88" s="214"/>
-      <c r="L88" s="214"/>
-      <c r="M88" s="214"/>
-      <c r="N88" s="215"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="215"/>
+      <c r="F88" s="215"/>
+      <c r="G88" s="215"/>
+      <c r="H88" s="215"/>
+      <c r="I88" s="215"/>
+      <c r="J88" s="215"/>
+      <c r="K88" s="215"/>
+      <c r="L88" s="215"/>
+      <c r="M88" s="215"/>
+      <c r="N88" s="216"/>
     </row>
     <row r="89" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="1">
@@ -17481,10 +17457,10 @@
       <c r="I89" s="24"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
-      <c r="L89" s="161" t="s">
+      <c r="L89" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="M89" s="218"/>
+      <c r="M89" s="219"/>
       <c r="N89" s="29"/>
     </row>
     <row r="90" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17505,10 +17481,10 @@
       <c r="I90" s="35"/>
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
-      <c r="L90" s="161" t="s">
+      <c r="L90" s="162" t="s">
         <v>270</v>
       </c>
-      <c r="M90" s="218"/>
+      <c r="M90" s="219"/>
       <c r="N90" s="29"/>
     </row>
     <row r="91" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17529,12 +17505,12 @@
       <c r="I91" s="35"/>
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
-      <c r="L91" s="219" t="s">
+      <c r="L91" s="220" t="s">
         <v>266</v>
       </c>
-      <c r="M91" s="218"/>
+      <c r="M91" s="219"/>
       <c r="N91" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17555,10 +17531,10 @@
       <c r="I92" s="35"/>
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
-      <c r="L92" s="216" t="s">
+      <c r="L92" s="217" t="s">
         <v>271</v>
       </c>
-      <c r="M92" s="162"/>
+      <c r="M92" s="163"/>
       <c r="N92" s="29"/>
     </row>
   </sheetData>
@@ -17694,7 +17670,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P25"/>
+  <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -17730,41 +17706,41 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
@@ -17824,7 +17800,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -17856,92 +17832,92 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="153" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="150" t="s">
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="151" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="143" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="156"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="142" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="75" t="s">
+      <c r="G10" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="H10" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="I10" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="J10" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="K10" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="M10" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="K10" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="L10" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="M10" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="N10" s="143"/>
+      <c r="N10" s="144"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="158" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
+      <c r="B11" s="159" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="79"/>
       <c r="M11" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N11" s="70"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="158" t="s">
-        <v>472</v>
-      </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
+      <c r="B12" s="159" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -17964,113 +17940,113 @@
       <c r="N12" s="70"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="79"/>
       <c r="L13" s="79"/>
       <c r="M13" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N13" s="70"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K14" s="79"/>
       <c r="L14" s="79"/>
       <c r="M14" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N14" s="70"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="159" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
       <c r="F15" s="78"/>
-      <c r="G15" s="79" t="s">
-        <v>295</v>
-      </c>
+      <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N15" s="70"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
       <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
+      <c r="G16" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N16" s="70"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
@@ -18078,22 +18054,22 @@
       <c r="K17" s="79"/>
       <c r="L17" s="79"/>
       <c r="M17" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N17" s="70"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -18101,22 +18077,22 @@
       <c r="K18" s="79"/>
       <c r="L18" s="79"/>
       <c r="M18" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N18" s="70"/>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="58">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -18124,22 +18100,22 @@
       <c r="K19" s="79"/>
       <c r="L19" s="79"/>
       <c r="M19" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N19" s="70"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
@@ -18147,22 +18123,22 @@
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
       <c r="M20" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N20" s="70"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="159" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
@@ -18170,22 +18146,22 @@
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
       <c r="M21" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N21" s="70"/>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
@@ -18193,87 +18169,63 @@
       <c r="K22" s="79"/>
       <c r="L22" s="79"/>
       <c r="M22" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N22" s="70"/>
     </row>
     <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="158" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="160"/>
+      <c r="B23" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="58">
-        <v>755</v>
-      </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79" t="s">
-        <v>295</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="79"/>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
       <c r="J23" s="79"/>
       <c r="K23" s="79"/>
       <c r="L23" s="79"/>
-      <c r="M23" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="N23" s="70"/>
-    </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="58">
-        <v>777</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="70" t="s">
+      <c r="M23" s="79"/>
+      <c r="N23" s="70" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="B2:N2"/>
@@ -18330,18 +18282,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19" t="s">
         <v>211</v>
       </c>
@@ -18349,19 +18301,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="54" t="s">
         <v>212</v>
       </c>
@@ -18465,33 +18417,33 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="183" t="s">
+      <c r="D10" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="191" t="s">
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="192"/>
-      <c r="N10" s="187" t="s">
+      <c r="M10" s="193"/>
+      <c r="N10" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="180"/>
-      <c r="C11" s="182"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
@@ -18514,11 +18466,11 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L11" s="193"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L11" s="194"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="189"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -18533,8 +18485,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="167"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18542,25 +18494,25 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="161" t="s">
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="M13" s="165"/>
+      <c r="N13" s="16" t="s">
         <v>381</v>
-      </c>
-      <c r="M13" s="164"/>
-      <c r="N13" s="16" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -18568,19 +18520,19 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="161" t="s">
+      <c r="C14" s="186"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="164"/>
+      <c r="M14" s="165"/>
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18588,19 +18540,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="161" t="s">
+      <c r="C15" s="187"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="M15" s="164"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -18616,8 +18568,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="167"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18638,10 +18590,10 @@
       <c r="I17" s="73"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="161" t="s">
+      <c r="L17" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="164"/>
+      <c r="M17" s="165"/>
       <c r="N17" s="27" t="s">
         <v>115</v>
       </c>
@@ -18659,8 +18611,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18681,99 +18633,99 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="163" t="s">
+      <c r="L19" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="164"/>
+      <c r="M19" s="165"/>
       <c r="N19" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="171">
+      <c r="B20" s="172">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="174" t="s">
+      <c r="C20" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="M20" s="164"/>
-      <c r="N20" s="168"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="M20" s="165"/>
+      <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="172">
+      <c r="B21" s="173">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
       <c r="L21" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="M21" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="M21" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="N21" s="169"/>
+      <c r="N21" s="170"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="172">
+      <c r="B22" s="173">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="175"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
       <c r="L22" s="86" t="s">
         <v>225</v>
       </c>
       <c r="M22" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="N22" s="169"/>
+      <c r="N22" s="170"/>
     </row>
     <row r="23" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="173">
+      <c r="B23" s="174">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="176"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="170"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="171"/>
     </row>
     <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -18810,10 +18762,10 @@
       <c r="I25" s="73"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="161" t="s">
+      <c r="L25" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="162"/>
+      <c r="M25" s="163"/>
       <c r="N25" s="27" t="s">
         <v>118</v>
       </c>
@@ -18823,7 +18775,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="175" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="73" t="s">
@@ -18836,10 +18788,10 @@
       <c r="I26" s="73"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="161" t="s">
+      <c r="L26" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="M26" s="162"/>
+      <c r="M26" s="163"/>
       <c r="N26" s="27" t="s">
         <v>152</v>
       </c>
@@ -18849,7 +18801,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="185"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="73" t="s">
         <v>9</v>
       </c>
@@ -18860,10 +18812,10 @@
       <c r="I27" s="73"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="161" t="s">
+      <c r="L27" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="M27" s="162"/>
+      <c r="M27" s="163"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18871,7 +18823,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="186"/>
+      <c r="C28" s="187"/>
       <c r="D28" s="73" t="s">
         <v>9</v>
       </c>
@@ -18882,10 +18834,10 @@
       <c r="I28" s="73"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="161" t="s">
+      <c r="L28" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="M28" s="162"/>
+      <c r="M28" s="163"/>
       <c r="N28" s="27" t="s">
         <v>154</v>
       </c>
@@ -18908,10 +18860,10 @@
       <c r="I29" s="73"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="161" t="s">
+      <c r="L29" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="M29" s="162"/>
+      <c r="M29" s="163"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -18932,12 +18884,12 @@
       <c r="I30" s="73"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="161" t="s">
+      <c r="L30" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="M30" s="162"/>
+      <c r="M30" s="163"/>
       <c r="N30" s="130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18958,10 +18910,10 @@
       <c r="I31" s="73"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="161" t="s">
-        <v>384</v>
-      </c>
-      <c r="M31" s="162"/>
+      <c r="L31" s="162" t="s">
+        <v>383</v>
+      </c>
+      <c r="M31" s="163"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18982,10 +18934,10 @@
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="161" t="s">
+      <c r="L32" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="M32" s="162"/>
+      <c r="M32" s="163"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19001,8 +18953,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="167"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -19023,10 +18975,10 @@
       <c r="I34" s="73"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="167" t="s">
-        <v>296</v>
-      </c>
-      <c r="M34" s="164"/>
+      <c r="L34" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" s="165"/>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19047,12 +18999,12 @@
       <c r="I35" s="73"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="167" t="s">
-        <v>297</v>
-      </c>
-      <c r="M35" s="164"/>
+      <c r="L35" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" s="165"/>
       <c r="N35" s="130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -19073,10 +19025,10 @@
       <c r="I36" s="73"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="167" t="s">
-        <v>298</v>
-      </c>
-      <c r="M36" s="164"/>
+      <c r="L36" s="168" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" s="165"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -19097,10 +19049,10 @@
       <c r="I37" s="73"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="167" t="s">
-        <v>299</v>
-      </c>
-      <c r="M37" s="164"/>
+      <c r="L37" s="168" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" s="165"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -19121,10 +19073,10 @@
       <c r="I38" s="73"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="161" t="s">
+      <c r="L38" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="M38" s="164"/>
+      <c r="M38" s="165"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19145,10 +19097,10 @@
       <c r="I39" s="73"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="161" t="s">
-        <v>300</v>
-      </c>
-      <c r="M39" s="164"/>
+      <c r="L39" s="162" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" s="165"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19169,10 +19121,10 @@
       <c r="I40" s="73"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="161" t="s">
-        <v>301</v>
-      </c>
-      <c r="M40" s="162"/>
+      <c r="L40" s="162" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" s="163"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19195,10 +19147,10 @@
       <c r="I41" s="73"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="161" t="s">
-        <v>302</v>
-      </c>
-      <c r="M41" s="162"/>
+      <c r="L41" s="162" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" s="163"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19221,10 +19173,10 @@
         <v>9</v>
       </c>
       <c r="K42" s="25"/>
-      <c r="L42" s="161" t="s">
-        <v>303</v>
-      </c>
-      <c r="M42" s="162"/>
+      <c r="L42" s="162" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" s="163"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19245,10 +19197,10 @@
       <c r="I43" s="73"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="161" t="s">
-        <v>304</v>
-      </c>
-      <c r="M43" s="162"/>
+      <c r="L43" s="162" t="s">
+        <v>303</v>
+      </c>
+      <c r="M43" s="163"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19269,10 +19221,10 @@
       <c r="I44" s="35"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
-      <c r="L44" s="161" t="s">
-        <v>305</v>
-      </c>
-      <c r="M44" s="162"/>
+      <c r="L44" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" s="163"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19295,10 +19247,10 @@
       <c r="I45" s="35"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
-      <c r="L45" s="161" t="s">
-        <v>306</v>
-      </c>
-      <c r="M45" s="162"/>
+      <c r="L45" s="162" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" s="163"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19319,10 +19271,10 @@
       <c r="I46" s="74"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
-      <c r="L46" s="161" t="s">
-        <v>307</v>
-      </c>
-      <c r="M46" s="162"/>
+      <c r="L46" s="162" t="s">
+        <v>306</v>
+      </c>
+      <c r="M46" s="163"/>
       <c r="N46" s="36"/>
     </row>
     <row r="47" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19343,10 +19295,10 @@
       </c>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="161" t="s">
-        <v>308</v>
-      </c>
-      <c r="M47" s="162"/>
+      <c r="L47" s="162" t="s">
+        <v>307</v>
+      </c>
+      <c r="M47" s="163"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19367,10 +19319,10 @@
         <v>9</v>
       </c>
       <c r="K48" s="25"/>
-      <c r="L48" s="161" t="s">
-        <v>309</v>
-      </c>
-      <c r="M48" s="162"/>
+      <c r="L48" s="162" t="s">
+        <v>308</v>
+      </c>
+      <c r="M48" s="163"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19379,7 +19331,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="34"/>
@@ -19391,10 +19343,10 @@
       <c r="K49" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="161" t="s">
-        <v>443</v>
-      </c>
-      <c r="M49" s="162"/>
+      <c r="L49" s="162" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" s="163"/>
       <c r="N49" s="29"/>
     </row>
   </sheetData>
@@ -19516,18 +19468,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19" t="s">
         <v>108</v>
       </c>
@@ -19535,19 +19487,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="20" t="s">
         <v>109</v>
       </c>
@@ -19668,33 +19620,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="191" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="193"/>
+      <c r="N11" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -19717,11 +19669,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="193"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L12" s="194"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -19736,8 +19688,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="167"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19745,25 +19697,25 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="161" t="s">
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" s="165"/>
+      <c r="N14" s="16" t="s">
         <v>381</v>
-      </c>
-      <c r="M14" s="164"/>
-      <c r="N14" s="16" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19771,19 +19723,19 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="161" t="s">
+      <c r="C15" s="186"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="162"/>
+      <c r="M15" s="163"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19791,19 +19743,19 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="161" t="s">
+      <c r="C16" s="187"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="162"/>
+      <c r="M16" s="163"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -19841,10 +19793,10 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="161" t="s">
+      <c r="L18" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="M18" s="162"/>
+      <c r="M18" s="163"/>
       <c r="N18" s="27" t="s">
         <v>115</v>
       </c>
@@ -19884,12 +19836,12 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="161" t="s">
+      <c r="L20" s="162" t="s">
+        <v>444</v>
+      </c>
+      <c r="M20" s="165"/>
+      <c r="N20" s="27" t="s">
         <v>445</v>
-      </c>
-      <c r="M20" s="164"/>
-      <c r="N20" s="27" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -19910,10 +19862,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="161" t="s">
+      <c r="L21" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="M21" s="164"/>
+      <c r="M21" s="165"/>
       <c r="N21" s="27" t="s">
         <v>218</v>
       </c>
@@ -19936,10 +19888,10 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="161" t="s">
+      <c r="L22" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="164"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19948,7 +19900,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>9</v>
@@ -19960,12 +19912,12 @@
       <c r="I23" s="129"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="161" t="s">
+      <c r="L23" s="162" t="s">
+        <v>447</v>
+      </c>
+      <c r="M23" s="165"/>
+      <c r="N23" s="27" t="s">
         <v>448</v>
-      </c>
-      <c r="M23" s="164"/>
-      <c r="N23" s="27" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19973,23 +19925,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="161" t="s">
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="164"/>
+      <c r="M24" s="165"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -19997,19 +19949,19 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="161" t="s">
+      <c r="C25" s="186"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="164"/>
+      <c r="M25" s="165"/>
       <c r="N25" s="27" t="s">
         <v>116</v>
       </c>
@@ -20027,8 +19979,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="167"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20049,10 +20001,10 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="161" t="s">
-        <v>385</v>
-      </c>
-      <c r="M27" s="162"/>
+      <c r="L27" s="162" t="s">
+        <v>384</v>
+      </c>
+      <c r="M27" s="163"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -20073,10 +20025,10 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="161" t="s">
-        <v>386</v>
-      </c>
-      <c r="M28" s="162"/>
+      <c r="L28" s="162" t="s">
+        <v>385</v>
+      </c>
+      <c r="M28" s="163"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -20097,10 +20049,10 @@
       <c r="I29" s="35"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="M29" s="162"/>
+      <c r="L29" s="162" t="s">
+        <v>386</v>
+      </c>
+      <c r="M29" s="163"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20116,8 +20068,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="167"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20138,10 +20090,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="167" t="s">
-        <v>318</v>
-      </c>
-      <c r="M31" s="164"/>
+      <c r="L31" s="168" t="s">
+        <v>317</v>
+      </c>
+      <c r="M31" s="165"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -20150,7 +20102,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>9</v>
@@ -20162,221 +20114,221 @@
       <c r="I32" s="77"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="167" t="s">
-        <v>361</v>
-      </c>
-      <c r="M32" s="164"/>
+      <c r="L32" s="168" t="s">
+        <v>360</v>
+      </c>
+      <c r="M32" s="165"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="171">
+      <c r="B33" s="172">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="M33" s="164"/>
-      <c r="N33" s="168"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="M33" s="165"/>
+      <c r="N33" s="169"/>
     </row>
     <row r="34" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="172"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
       <c r="L34" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="M34" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="N34" s="170"/>
+    </row>
+    <row r="35" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="173"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="M34" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="N34" s="169"/>
-    </row>
-    <row r="35" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="172"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="86" t="s">
+      <c r="M35" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="N35" s="170"/>
+    </row>
+    <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="173"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="86" t="s">
         <v>341</v>
       </c>
-      <c r="M35" s="91" t="s">
+      <c r="M36" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="N35" s="169"/>
-    </row>
-    <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="172"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="86" t="s">
+      <c r="N36" s="170"/>
+    </row>
+    <row r="37" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="173"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="M36" s="91" t="s">
+      <c r="M37" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="N36" s="169"/>
-    </row>
-    <row r="37" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="172"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="86" t="s">
+      <c r="N37" s="170"/>
+    </row>
+    <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="173"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="M37" s="91" t="s">
+      <c r="M38" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="N37" s="169"/>
-    </row>
-    <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="172"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="86" t="s">
+      <c r="N38" s="170"/>
+    </row>
+    <row r="39" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="173"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="M38" s="91" t="s">
+      <c r="M39" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="N38" s="169"/>
-    </row>
-    <row r="39" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="172"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="86" t="s">
+      <c r="N39" s="170"/>
+    </row>
+    <row r="40" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="173"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="M39" s="91" t="s">
+      <c r="M40" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="N39" s="169"/>
-    </row>
-    <row r="40" spans="2:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="172"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="86" t="s">
+      <c r="N40" s="170"/>
+    </row>
+    <row r="41" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="173"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="M40" s="91" t="s">
+      <c r="M41" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="N40" s="169"/>
-    </row>
-    <row r="41" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="172"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="86" t="s">
+      <c r="N41" s="170"/>
+    </row>
+    <row r="42" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="173"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M42" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="N41" s="169"/>
-    </row>
-    <row r="42" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="172"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="86" t="s">
-        <v>348</v>
-      </c>
-      <c r="M42" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="N42" s="169"/>
+      <c r="N42" s="170"/>
     </row>
     <row r="43" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="173"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="170"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="171"/>
     </row>
     <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20396,10 +20348,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="161" t="s">
-        <v>388</v>
-      </c>
-      <c r="M44" s="162"/>
+      <c r="L44" s="162" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44" s="163"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20420,10 +20372,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="M45" s="162"/>
+      <c r="L45" s="162" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" s="163"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20444,10 +20396,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="161" t="s">
-        <v>426</v>
-      </c>
-      <c r="M46" s="162"/>
+      <c r="L46" s="162" t="s">
+        <v>425</v>
+      </c>
+      <c r="M46" s="163"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20468,10 +20420,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="161" t="s">
-        <v>427</v>
-      </c>
-      <c r="M47" s="162"/>
+      <c r="L47" s="162" t="s">
+        <v>426</v>
+      </c>
+      <c r="M47" s="163"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20492,10 +20444,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="161" t="s">
-        <v>428</v>
-      </c>
-      <c r="M48" s="162"/>
+      <c r="L48" s="162" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" s="163"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20516,10 +20468,10 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="195" t="s">
-        <v>390</v>
-      </c>
-      <c r="M49" s="162"/>
+      <c r="L49" s="196" t="s">
+        <v>389</v>
+      </c>
+      <c r="M49" s="163"/>
       <c r="N49" s="46"/>
     </row>
     <row r="50" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20540,10 +20492,10 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="195" t="s">
-        <v>391</v>
-      </c>
-      <c r="M50" s="162"/>
+      <c r="L50" s="196" t="s">
+        <v>390</v>
+      </c>
+      <c r="M50" s="163"/>
       <c r="N50" s="46"/>
     </row>
     <row r="51" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20566,10 +20518,10 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="195" t="s">
-        <v>392</v>
-      </c>
-      <c r="M51" s="162"/>
+      <c r="L51" s="196" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" s="163"/>
       <c r="N51" s="46"/>
     </row>
     <row r="52" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20592,10 +20544,10 @@
         <v>9</v>
       </c>
       <c r="K52" s="25"/>
-      <c r="L52" s="195" t="s">
-        <v>393</v>
-      </c>
-      <c r="M52" s="162"/>
+      <c r="L52" s="196" t="s">
+        <v>392</v>
+      </c>
+      <c r="M52" s="163"/>
       <c r="N52" s="46"/>
     </row>
     <row r="53" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20616,10 +20568,10 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="195" t="s">
-        <v>394</v>
-      </c>
-      <c r="M53" s="162"/>
+      <c r="L53" s="196" t="s">
+        <v>393</v>
+      </c>
+      <c r="M53" s="163"/>
       <c r="N53" s="46"/>
     </row>
     <row r="54" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20640,10 +20592,10 @@
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="195" t="s">
-        <v>395</v>
-      </c>
-      <c r="M54" s="162"/>
+      <c r="L54" s="196" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" s="163"/>
       <c r="N54" s="46"/>
     </row>
     <row r="55" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20666,10 +20618,10 @@
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="M55" s="162"/>
+      <c r="L55" s="196" t="s">
+        <v>395</v>
+      </c>
+      <c r="M55" s="163"/>
       <c r="N55" s="46"/>
     </row>
     <row r="56" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20690,10 +20642,10 @@
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
-      <c r="L56" s="195" t="s">
-        <v>397</v>
-      </c>
-      <c r="M56" s="162"/>
+      <c r="L56" s="196" t="s">
+        <v>396</v>
+      </c>
+      <c r="M56" s="163"/>
       <c r="N56" s="46"/>
     </row>
     <row r="57" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20714,10 +20666,10 @@
       </c>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="195" t="s">
-        <v>398</v>
-      </c>
-      <c r="M57" s="162"/>
+      <c r="L57" s="196" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" s="163"/>
       <c r="N57" s="46"/>
     </row>
     <row r="58" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20738,10 +20690,10 @@
         <v>9</v>
       </c>
       <c r="K58" s="25"/>
-      <c r="L58" s="195" t="s">
-        <v>399</v>
-      </c>
-      <c r="M58" s="162"/>
+      <c r="L58" s="196" t="s">
+        <v>398</v>
+      </c>
+      <c r="M58" s="163"/>
       <c r="N58" s="46"/>
     </row>
     <row r="59" spans="2:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20750,7 +20702,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="25"/>
@@ -20762,10 +20714,10 @@
       <c r="K59" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="195" t="s">
-        <v>444</v>
-      </c>
-      <c r="M59" s="162"/>
+      <c r="L59" s="196" t="s">
+        <v>443</v>
+      </c>
+      <c r="M59" s="163"/>
       <c r="N59" s="46"/>
     </row>
     <row r="60" spans="2:14" ht="81" x14ac:dyDescent="0.15">
@@ -20786,10 +20738,10 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="161" t="s">
+      <c r="L60" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="M60" s="162"/>
+      <c r="M60" s="163"/>
       <c r="N60" s="29" t="s">
         <v>147</v>
       </c>
@@ -20812,10 +20764,10 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="161" t="s">
+      <c r="L61" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="M61" s="162"/>
+      <c r="M61" s="163"/>
       <c r="N61" s="29" t="s">
         <v>117</v>
       </c>
@@ -20838,12 +20790,12 @@
       <c r="I62" s="24"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="161" t="s">
+      <c r="L62" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="M62" s="162"/>
+      <c r="M62" s="163"/>
       <c r="N62" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -20859,8 +20811,8 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="165"/>
-      <c r="M63" s="166"/>
+      <c r="L63" s="166"/>
+      <c r="M63" s="167"/>
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20881,10 +20833,10 @@
       <c r="I64" s="24"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="161" t="s">
+      <c r="L64" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="M64" s="164"/>
+      <c r="M64" s="165"/>
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -20905,10 +20857,10 @@
       <c r="I65" s="24"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="161" t="s">
+      <c r="L65" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="M65" s="164"/>
+      <c r="M65" s="165"/>
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20929,10 +20881,10 @@
       <c r="I66" s="24"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="161" t="s">
+      <c r="L66" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="M66" s="164"/>
+      <c r="M66" s="165"/>
       <c r="N66" s="29"/>
     </row>
     <row r="67" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -20955,10 +20907,10 @@
       <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="161" t="s">
+      <c r="L67" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="M67" s="164"/>
+      <c r="M67" s="165"/>
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -20981,10 +20933,10 @@
         <v>9</v>
       </c>
       <c r="K68" s="25"/>
-      <c r="L68" s="161" t="s">
+      <c r="L68" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="M68" s="164"/>
+      <c r="M68" s="165"/>
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21005,10 +20957,10 @@
       <c r="I69" s="24"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="161" t="s">
-        <v>319</v>
-      </c>
-      <c r="M69" s="164"/>
+      <c r="L69" s="162" t="s">
+        <v>318</v>
+      </c>
+      <c r="M69" s="165"/>
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21029,10 +20981,10 @@
       <c r="I70" s="24"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="161" t="s">
+      <c r="L70" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="M70" s="164"/>
+      <c r="M70" s="165"/>
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21055,10 +21007,10 @@
       <c r="I71" s="24"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="161" t="s">
-        <v>320</v>
-      </c>
-      <c r="M71" s="164"/>
+      <c r="L71" s="162" t="s">
+        <v>319</v>
+      </c>
+      <c r="M71" s="165"/>
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21079,10 +21031,10 @@
       <c r="I72" s="24"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
-      <c r="L72" s="161" t="s">
+      <c r="L72" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="M72" s="162"/>
+      <c r="M72" s="163"/>
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21103,10 +21055,10 @@
       </c>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="161" t="s">
+      <c r="L73" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="M73" s="162"/>
+      <c r="M73" s="163"/>
       <c r="N73" s="29"/>
     </row>
     <row r="74" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21127,10 +21079,10 @@
         <v>9</v>
       </c>
       <c r="K74" s="25"/>
-      <c r="L74" s="161" t="s">
+      <c r="L74" s="162" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="162"/>
+      <c r="M74" s="163"/>
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21139,7 +21091,7 @@
         <v>47</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="25"/>
@@ -21151,10 +21103,10 @@
       <c r="K75" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L75" s="161" t="s">
-        <v>450</v>
-      </c>
-      <c r="M75" s="162"/>
+      <c r="L75" s="162" t="s">
+        <v>449</v>
+      </c>
+      <c r="M75" s="163"/>
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21175,10 +21127,10 @@
       <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="161" t="s">
+      <c r="L76" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="M76" s="162"/>
+      <c r="M76" s="163"/>
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21199,10 +21151,10 @@
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
-      <c r="L77" s="161" t="s">
-        <v>336</v>
-      </c>
-      <c r="M77" s="162"/>
+      <c r="L77" s="162" t="s">
+        <v>335</v>
+      </c>
+      <c r="M77" s="163"/>
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21218,8 +21170,8 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="165"/>
-      <c r="M78" s="166"/>
+      <c r="L78" s="166"/>
+      <c r="M78" s="167"/>
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21240,10 +21192,10 @@
       <c r="I79" s="24"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="161" t="s">
+      <c r="L79" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="M79" s="164"/>
+      <c r="M79" s="165"/>
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21259,8 +21211,8 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="165"/>
-      <c r="M80" s="166"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="167"/>
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="2:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21281,10 +21233,10 @@
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="161" t="s">
+      <c r="L81" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="M81" s="164"/>
+      <c r="M81" s="165"/>
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21300,8 +21252,8 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="165"/>
-      <c r="M82" s="166"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="167"/>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -21322,10 +21274,10 @@
       <c r="I83" s="35"/>
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
-      <c r="L83" s="161" t="s">
+      <c r="L83" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="M83" s="164"/>
+      <c r="M83" s="165"/>
       <c r="N83" s="27" t="s">
         <v>120</v>
       </c>
@@ -21485,18 +21437,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19" t="s">
         <v>108</v>
       </c>
@@ -21504,19 +21456,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="20" t="s">
         <v>109</v>
       </c>
@@ -21637,33 +21589,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="191" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="193"/>
+      <c r="N11" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -21686,11 +21638,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="193"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L12" s="194"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -21705,8 +21657,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="166"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="167"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21714,25 +21666,25 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" s="164"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" s="165"/>
       <c r="N14" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21740,19 +21692,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="197" t="s">
+      <c r="C15" s="186"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="M15" s="164"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21760,19 +21712,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="197" t="s">
+      <c r="C16" s="187"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="198" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="164"/>
+      <c r="M16" s="165"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21788,8 +21740,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="166"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="167"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21810,10 +21762,10 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="197" t="s">
+      <c r="L18" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="M18" s="164"/>
+      <c r="M18" s="165"/>
       <c r="N18" s="27" t="s">
         <v>115</v>
       </c>
@@ -21831,8 +21783,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="166"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="167"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21853,10 +21805,10 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="197" t="s">
+      <c r="L20" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="164"/>
+      <c r="M20" s="165"/>
       <c r="N20" s="27" t="s">
         <v>121</v>
       </c>
@@ -21879,10 +21831,10 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="197" t="s">
+      <c r="L21" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="164"/>
+      <c r="M21" s="165"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -21898,8 +21850,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="196"/>
-      <c r="M22" s="166"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="167"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" ht="175.5" x14ac:dyDescent="0.15">
@@ -21920,12 +21872,12 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="197" t="s">
+      <c r="L23" s="198" t="s">
+        <v>451</v>
+      </c>
+      <c r="M23" s="165"/>
+      <c r="N23" s="27" t="s">
         <v>452</v>
-      </c>
-      <c r="M23" s="164"/>
-      <c r="N23" s="27" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -21946,10 +21898,10 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="197" t="s">
+      <c r="L24" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="M24" s="164"/>
+      <c r="M24" s="165"/>
       <c r="N24" s="27" t="s">
         <v>218</v>
       </c>
@@ -21972,10 +21924,10 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="197" t="s">
+      <c r="L25" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="M25" s="164"/>
+      <c r="M25" s="165"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -21984,7 +21936,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" s="129"/>
       <c r="E26" s="25"/>
@@ -21996,12 +21948,12 @@
       <c r="I26" s="129"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="161" t="s">
+      <c r="L26" s="162" t="s">
+        <v>447</v>
+      </c>
+      <c r="M26" s="165"/>
+      <c r="N26" s="27" t="s">
         <v>448</v>
-      </c>
-      <c r="M26" s="164"/>
-      <c r="N26" s="27" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -22009,23 +21961,23 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177" t="s">
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178" t="s">
         <v>219</v>
       </c>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="197" t="s">
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="M27" s="164"/>
+      <c r="M27" s="165"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -22033,19 +21985,19 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="197" t="s">
+      <c r="C28" s="186"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="164"/>
+      <c r="M28" s="165"/>
       <c r="N28" s="27" t="s">
         <v>116</v>
       </c>
@@ -22063,8 +22015,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="166"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="167"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22085,10 +22037,10 @@
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="197" t="s">
-        <v>402</v>
-      </c>
-      <c r="M30" s="164"/>
+      <c r="L30" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="M30" s="165"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22109,10 +22061,10 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="197" t="s">
-        <v>401</v>
-      </c>
-      <c r="M31" s="164"/>
+      <c r="L31" s="198" t="s">
+        <v>400</v>
+      </c>
+      <c r="M31" s="165"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22133,16 +22085,16 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="M32" s="164"/>
+      <c r="L32" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="M32" s="165"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -22152,8 +22104,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="166"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="167"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22162,7 +22114,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
@@ -22174,12 +22126,12 @@
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="197" t="s">
-        <v>465</v>
-      </c>
-      <c r="M34" s="164"/>
+      <c r="L34" s="198" t="s">
+        <v>464</v>
+      </c>
+      <c r="M34" s="165"/>
       <c r="N34" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22188,7 +22140,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="34"/>
@@ -22200,10 +22152,10 @@
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="197" t="s">
-        <v>462</v>
-      </c>
-      <c r="M35" s="164"/>
+      <c r="L35" s="198" t="s">
+        <v>461</v>
+      </c>
+      <c r="M35" s="165"/>
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22212,7 +22164,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="34"/>
@@ -22224,10 +22176,10 @@
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
-      <c r="L36" s="198" t="s">
-        <v>464</v>
-      </c>
-      <c r="M36" s="199"/>
+      <c r="L36" s="199" t="s">
+        <v>463</v>
+      </c>
+      <c r="M36" s="200"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22243,8 +22195,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="166"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="167"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22265,10 +22217,10 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="197" t="s">
+      <c r="L38" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="M38" s="164"/>
+      <c r="M38" s="165"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22289,88 +22241,88 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="197" t="s">
+      <c r="L39" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="M39" s="164"/>
+      <c r="M39" s="165"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="171">
+      <c r="B40" s="172">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="174" t="s">
+      <c r="C40" s="175" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
+      <c r="L40" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" s="165"/>
+      <c r="N40" s="169"/>
+    </row>
+    <row r="41" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="173"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="84" t="s">
         <v>331</v>
       </c>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="M40" s="164"/>
-      <c r="N40" s="168"/>
-    </row>
-    <row r="41" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="172"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="84" t="s">
-        <v>332</v>
-      </c>
       <c r="M41" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="N41" s="169"/>
+        <v>320</v>
+      </c>
+      <c r="N41" s="170"/>
     </row>
     <row r="42" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="172"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
       <c r="L42" s="86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M42" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="N42" s="169"/>
+        <v>322</v>
+      </c>
+      <c r="N42" s="170"/>
     </row>
     <row r="43" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="173"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="179"/>
       <c r="L43" s="81"/>
       <c r="M43" s="83"/>
-      <c r="N43" s="170"/>
+      <c r="N43" s="171"/>
     </row>
     <row r="44" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -22390,10 +22342,10 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="197" t="s">
-        <v>403</v>
-      </c>
-      <c r="M44" s="164"/>
+      <c r="L44" s="198" t="s">
+        <v>402</v>
+      </c>
+      <c r="M44" s="165"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22414,10 +22366,10 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="197" t="s">
-        <v>404</v>
-      </c>
-      <c r="M45" s="164"/>
+      <c r="L45" s="198" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" s="165"/>
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -22438,10 +22390,10 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="197" t="s">
-        <v>405</v>
-      </c>
-      <c r="M46" s="164"/>
+      <c r="L46" s="198" t="s">
+        <v>404</v>
+      </c>
+      <c r="M46" s="165"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22462,10 +22414,10 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="197" t="s">
-        <v>406</v>
-      </c>
-      <c r="M47" s="164"/>
+      <c r="L47" s="198" t="s">
+        <v>405</v>
+      </c>
+      <c r="M47" s="165"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22486,10 +22438,10 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="197" t="s">
-        <v>407</v>
-      </c>
-      <c r="M48" s="162"/>
+      <c r="L48" s="198" t="s">
+        <v>406</v>
+      </c>
+      <c r="M48" s="163"/>
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22505,8 +22457,8 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="166"/>
+      <c r="L49" s="197"/>
+      <c r="M49" s="167"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22527,10 +22479,10 @@
       <c r="I50" s="24"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="197" t="s">
+      <c r="L50" s="198" t="s">
         <v>139</v>
       </c>
-      <c r="M50" s="164"/>
+      <c r="M50" s="165"/>
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="2:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22551,10 +22503,10 @@
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="197" t="s">
+      <c r="L51" s="198" t="s">
         <v>143</v>
       </c>
-      <c r="M51" s="164"/>
+      <c r="M51" s="165"/>
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22575,10 +22527,10 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="197" t="s">
-        <v>430</v>
-      </c>
-      <c r="M52" s="162"/>
+      <c r="L52" s="198" t="s">
+        <v>429</v>
+      </c>
+      <c r="M52" s="163"/>
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22599,10 +22551,10 @@
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="197" t="s">
-        <v>431</v>
-      </c>
-      <c r="M53" s="162"/>
+      <c r="L53" s="198" t="s">
+        <v>430</v>
+      </c>
+      <c r="M53" s="163"/>
       <c r="N53" s="29"/>
     </row>
     <row r="54" spans="2:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22623,10 +22575,10 @@
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="197" t="s">
+      <c r="L54" s="198" t="s">
         <v>140</v>
       </c>
-      <c r="M54" s="162"/>
+      <c r="M54" s="163"/>
       <c r="N54" s="29"/>
     </row>
     <row r="55" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22647,10 +22599,10 @@
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="197" t="s">
+      <c r="L55" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="M55" s="162"/>
+      <c r="M55" s="163"/>
       <c r="N55" s="29"/>
     </row>
     <row r="56" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -22666,8 +22618,8 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="196"/>
-      <c r="M56" s="166"/>
+      <c r="L56" s="197"/>
+      <c r="M56" s="167"/>
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -22688,12 +22640,12 @@
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="197" t="s">
-        <v>454</v>
-      </c>
-      <c r="M57" s="164"/>
+      <c r="L57" s="198" t="s">
+        <v>453</v>
+      </c>
+      <c r="M57" s="165"/>
       <c r="N57" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22714,10 +22666,10 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="197" t="s">
+      <c r="L58" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="164"/>
+      <c r="M58" s="165"/>
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22738,10 +22690,10 @@
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="197" t="s">
-        <v>408</v>
-      </c>
-      <c r="M59" s="164"/>
+      <c r="L59" s="198" t="s">
+        <v>407</v>
+      </c>
+      <c r="M59" s="165"/>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22762,10 +22714,10 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="197" t="s">
-        <v>409</v>
-      </c>
-      <c r="M60" s="164"/>
+      <c r="L60" s="198" t="s">
+        <v>408</v>
+      </c>
+      <c r="M60" s="165"/>
       <c r="N60" s="27"/>
     </row>
     <row r="61" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -22786,12 +22738,12 @@
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="197" t="s">
+      <c r="L61" s="198" t="s">
+        <v>454</v>
+      </c>
+      <c r="M61" s="163"/>
+      <c r="N61" s="27" t="s">
         <v>455</v>
-      </c>
-      <c r="M61" s="162"/>
-      <c r="N61" s="27" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="81" x14ac:dyDescent="0.15">
@@ -22812,10 +22764,10 @@
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="197" t="s">
+      <c r="L62" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="M62" s="162"/>
+      <c r="M62" s="163"/>
       <c r="N62" s="27" t="s">
         <v>122</v>
       </c>
@@ -22959,36 +22911,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="19"/>
@@ -23124,33 +23076,33 @@
       <c r="N11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C12" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="183" t="s">
+      <c r="D12" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="191" t="s">
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="200"/>
-      <c r="N12" s="187" t="s">
+      <c r="M12" s="201"/>
+      <c r="N12" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="180"/>
-      <c r="C13" s="182"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
@@ -23173,11 +23125,11 @@
         <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L13" s="193"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L13" s="194"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="189"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -23192,8 +23144,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="202"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="203"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23214,88 +23166,88 @@
       <c r="I15" s="50"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="197" t="s">
-        <v>310</v>
-      </c>
-      <c r="M15" s="162"/>
+      <c r="L15" s="198" t="s">
+        <v>309</v>
+      </c>
+      <c r="M15" s="163"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="171">
+      <c r="B16" s="172">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="204" t="s">
+      <c r="C16" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177" t="s">
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="M16" s="164"/>
-      <c r="N16" s="168"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="M16" s="165"/>
+      <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="172"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M17" s="88" t="s">
-        <v>339</v>
-      </c>
-      <c r="N17" s="169"/>
+        <v>338</v>
+      </c>
+      <c r="N17" s="170"/>
     </row>
     <row r="18" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="172"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
       <c r="L18" s="86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M18" s="89" t="s">
-        <v>323</v>
-      </c>
-      <c r="N18" s="169"/>
+        <v>322</v>
+      </c>
+      <c r="N18" s="170"/>
     </row>
     <row r="19" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="203"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="207"/>
-      <c r="N19" s="170"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="208"/>
+      <c r="N19" s="171"/>
     </row>
     <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -23332,10 +23284,10 @@
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="197" t="s">
+      <c r="L21" s="198" t="s">
         <v>275</v>
       </c>
-      <c r="M21" s="162"/>
+      <c r="M21" s="163"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23356,10 +23308,10 @@
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="197" t="s">
-        <v>425</v>
-      </c>
-      <c r="M22" s="162"/>
+      <c r="L22" s="198" t="s">
+        <v>424</v>
+      </c>
+      <c r="M22" s="163"/>
       <c r="N22" s="27"/>
     </row>
   </sheetData>
@@ -23438,18 +23390,18 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19" t="s">
         <v>214</v>
       </c>
@@ -23457,19 +23409,19 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="20" t="s">
         <v>109</v>
       </c>
@@ -23592,33 +23544,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="191" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="193"/>
+      <c r="N11" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -23641,11 +23593,11 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="193"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L12" s="194"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -23660,8 +23612,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="166"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="167"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23669,25 +23621,25 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" s="164"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" s="165"/>
       <c r="N14" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23695,19 +23647,19 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="197" t="s">
+      <c r="C15" s="186"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="198" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="164"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23715,19 +23667,19 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="197" t="s">
+      <c r="C16" s="187"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="198" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="164"/>
+      <c r="M16" s="165"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -23743,8 +23695,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="166"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="167"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23765,10 +23717,10 @@
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="197" t="s">
+      <c r="L18" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="M18" s="164"/>
+      <c r="M18" s="165"/>
       <c r="N18" s="27" t="s">
         <v>115</v>
       </c>
@@ -23786,8 +23738,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="166"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="167"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" ht="202.5" x14ac:dyDescent="0.15">
@@ -23808,12 +23760,12 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="197" t="s">
-        <v>452</v>
-      </c>
-      <c r="M20" s="164"/>
+      <c r="L20" s="198" t="s">
+        <v>451</v>
+      </c>
+      <c r="M20" s="165"/>
       <c r="N20" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
@@ -23834,10 +23786,10 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="197" t="s">
+      <c r="L21" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="M21" s="164"/>
+      <c r="M21" s="165"/>
       <c r="N21" s="27" t="s">
         <v>218</v>
       </c>
@@ -23860,10 +23812,10 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="197" t="s">
+      <c r="L22" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="162"/>
+      <c r="M22" s="163"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23872,7 +23824,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="25"/>
@@ -23884,12 +23836,12 @@
       <c r="I23" s="129"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="161" t="s">
+      <c r="L23" s="162" t="s">
+        <v>447</v>
+      </c>
+      <c r="M23" s="165"/>
+      <c r="N23" s="27" t="s">
         <v>448</v>
-      </c>
-      <c r="M23" s="164"/>
-      <c r="N23" s="27" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23897,23 +23849,23 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177" t="s">
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="197" t="s">
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="162"/>
+      <c r="M24" s="163"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -23921,19 +23873,19 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="197" t="s">
+      <c r="C25" s="186"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="162"/>
+      <c r="M25" s="163"/>
       <c r="N25" s="27" t="s">
         <v>116</v>
       </c>
@@ -23951,8 +23903,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="166"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="167"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23973,10 +23925,10 @@
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="197" t="s">
-        <v>402</v>
-      </c>
-      <c r="M27" s="162"/>
+      <c r="L27" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="M27" s="163"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23997,10 +23949,10 @@
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="197" t="s">
-        <v>401</v>
-      </c>
-      <c r="M28" s="162"/>
+      <c r="L28" s="198" t="s">
+        <v>400</v>
+      </c>
+      <c r="M28" s="163"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24021,10 +23973,10 @@
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="M29" s="162"/>
+      <c r="L29" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="M29" s="163"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -24040,8 +23992,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="166"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="167"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24062,10 +24014,10 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="197" t="s">
+      <c r="L31" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="M31" s="164"/>
+      <c r="M31" s="165"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24086,88 +24038,88 @@
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="197" t="s">
+      <c r="L32" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="M32" s="164"/>
+      <c r="M32" s="165"/>
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="171">
+      <c r="B33" s="172">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177" t="s">
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="M33" s="164"/>
-      <c r="N33" s="168"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="M33" s="165"/>
+      <c r="N33" s="169"/>
     </row>
     <row r="34" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="208"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
       <c r="L34" s="84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M34" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="N34" s="169"/>
+        <v>320</v>
+      </c>
+      <c r="N34" s="170"/>
     </row>
     <row r="35" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="208"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="173"/>
       <c r="L35" s="86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M35" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="N35" s="169"/>
+        <v>322</v>
+      </c>
+      <c r="N35" s="170"/>
     </row>
     <row r="36" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="209"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="170"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="179"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="171"/>
     </row>
     <row r="37" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -24187,10 +24139,10 @@
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="197" t="s">
-        <v>403</v>
-      </c>
-      <c r="M37" s="162"/>
+      <c r="L37" s="198" t="s">
+        <v>402</v>
+      </c>
+      <c r="M37" s="163"/>
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24211,10 +24163,10 @@
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="197" t="s">
-        <v>404</v>
-      </c>
-      <c r="M38" s="162"/>
+      <c r="L38" s="198" t="s">
+        <v>403</v>
+      </c>
+      <c r="M38" s="163"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24235,10 +24187,10 @@
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="197" t="s">
-        <v>405</v>
-      </c>
-      <c r="M39" s="162"/>
+      <c r="L39" s="198" t="s">
+        <v>404</v>
+      </c>
+      <c r="M39" s="163"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24259,10 +24211,10 @@
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="197" t="s">
-        <v>406</v>
-      </c>
-      <c r="M40" s="162"/>
+      <c r="L40" s="198" t="s">
+        <v>405</v>
+      </c>
+      <c r="M40" s="163"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24283,10 +24235,10 @@
       </c>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="197" t="s">
-        <v>407</v>
-      </c>
-      <c r="M41" s="162"/>
+      <c r="L41" s="198" t="s">
+        <v>406</v>
+      </c>
+      <c r="M41" s="163"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24307,10 +24259,10 @@
       </c>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="161" t="s">
+      <c r="L42" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="M42" s="162"/>
+      <c r="M42" s="163"/>
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -24331,10 +24283,10 @@
       </c>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="161" t="s">
+      <c r="L43" s="162" t="s">
         <v>197</v>
       </c>
-      <c r="M43" s="162"/>
+      <c r="M43" s="163"/>
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24355,10 +24307,10 @@
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="161" t="s">
-        <v>365</v>
-      </c>
-      <c r="M44" s="162"/>
+      <c r="L44" s="162" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" s="163"/>
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -24374,8 +24326,8 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="196"/>
-      <c r="M45" s="166"/>
+      <c r="L45" s="197"/>
+      <c r="M45" s="167"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="2:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24396,10 +24348,10 @@
       </c>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="197" t="s">
-        <v>366</v>
-      </c>
-      <c r="M46" s="164"/>
+      <c r="L46" s="198" t="s">
+        <v>365</v>
+      </c>
+      <c r="M46" s="165"/>
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
@@ -24415,8 +24367,8 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="196"/>
-      <c r="M47" s="166"/>
+      <c r="L47" s="197"/>
+      <c r="M47" s="167"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24437,10 +24389,10 @@
       </c>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
-      <c r="L48" s="197" t="s">
+      <c r="L48" s="198" t="s">
         <v>274</v>
       </c>
-      <c r="M48" s="164"/>
+      <c r="M48" s="165"/>
       <c r="N48" s="27"/>
     </row>
   </sheetData>
@@ -24571,36 +24523,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(OpenStack)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -24711,33 +24663,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="191" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="193"/>
+      <c r="N11" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -24760,31 +24712,31 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="193"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L12" s="194"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
         <f>MAX(B$10:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="210" t="s">
-        <v>364</v>
-      </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="212"/>
+      <c r="C13" s="211" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="213"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N13"/>
@@ -24845,36 +24797,36 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="146" t="str">
+      <c r="B3" s="147" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
@@ -24985,33 +24937,33 @@
       <c r="N10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="191" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="193"/>
+      <c r="N11" s="188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
@@ -25034,31 +24986,31 @@
         <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="193"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="188"/>
+        <v>439</v>
+      </c>
+      <c r="L12" s="194"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
         <f>MAX(B$10:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="210" t="s">
-        <v>364</v>
-      </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="212"/>
+      <c r="C13" s="211" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="213"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:N13"/>
